--- a/data-pipeline-app/documentation/docs/Capstone Supplier Performance Analysis Data Guide.xlsx
+++ b/data-pipeline-app/documentation/docs/Capstone Supplier Performance Analysis Data Guide.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHAKTI_GOYAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHAKTI_GOYAL\capstone-project\data-eng-capstone-project-teameinstein\data-pipeline-app\documentation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52380186-0400-494A-BFE2-13C752DFD2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC64CD6-4069-47C2-BF9F-2AAE821FE453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="893" activeTab="5" xr2:uid="{C47A438E-1665-47B3-8C39-BF484954AF81}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="893" firstSheet="1" activeTab="10" xr2:uid="{C47A438E-1665-47B3-8C39-BF484954AF81}"/>
   </bookViews>
   <sheets>
     <sheet name="User Guide" sheetId="7" r:id="rId1"/>
@@ -19,12 +19,14 @@
     <sheet name="Supplier Data" sheetId="21" r:id="rId4"/>
     <sheet name="PurchaseOrders" sheetId="20" r:id="rId5"/>
     <sheet name="Delivery Data" sheetId="22" r:id="rId6"/>
-    <sheet name="Inventory Management Data" sheetId="10" r:id="rId7"/>
-    <sheet name="Perfomance Feedback" sheetId="18" r:id="rId8"/>
-    <sheet name="CareTeam" sheetId="9" r:id="rId9"/>
+    <sheet name="Quality Control Data" sheetId="23" r:id="rId7"/>
+    <sheet name="Lead Time Data" sheetId="24" r:id="rId8"/>
+    <sheet name="Compliance Data" sheetId="25" r:id="rId9"/>
+    <sheet name="Inventory Management Data" sheetId="10" r:id="rId10"/>
+    <sheet name="Perfomance Feedback" sheetId="18" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="base64binary" localSheetId="2">'Data Types'!$A$9</definedName>
@@ -38,169 +40,142 @@
     <definedName name="instant" localSheetId="2">'Data Types'!$A$10</definedName>
     <definedName name="integer" localSheetId="2">'Data Types'!#REF!</definedName>
     <definedName name="markdown" localSheetId="2">'Data Types'!$A$17</definedName>
-    <definedName name="Observation.bodySite" localSheetId="8">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.bodySite" localSheetId="6">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.bodySite" localSheetId="7">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.bodySite" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.bodySite" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.bodySite" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.bodySite" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.bodySite">#REF!</definedName>
     <definedName name="Observation.category">#REF!</definedName>
     <definedName name="Observation.code">#REF!</definedName>
-    <definedName name="Observation.component" localSheetId="8">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.component" localSheetId="6">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.component" localSheetId="7">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.component" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.component" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.component" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.component" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.component">#REF!</definedName>
     <definedName name="Observation.component.code">#REF!</definedName>
-    <definedName name="Observation.component.extension" localSheetId="8">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.component.extension" localSheetId="6">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.component.extension" localSheetId="7">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.component.extension" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.component.extension" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.component.extension" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.component.extension" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.component.extension">#REF!</definedName>
-    <definedName name="Observation.component.id" localSheetId="8">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.component.id" localSheetId="6">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.component.id" localSheetId="7">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.component.id" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.component.id" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.component.id" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.component.id" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.component.id">#REF!</definedName>
-    <definedName name="Observation.component.modifierExtension" localSheetId="8">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.component.modifierExtension" localSheetId="6">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.component.modifierExtension" localSheetId="7">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.component.modifierExtension" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.component.modifierExtension" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.component.modifierExtension" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.component.modifierExtension" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.component.modifierExtension">#REF!</definedName>
     <definedName name="Observation.dataAbsentReason">#REF!</definedName>
-    <definedName name="Observation.derivedFrom" localSheetId="8">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.derivedFrom" localSheetId="6">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.derivedFrom" localSheetId="7">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.derivedFrom" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.derivedFrom" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.derivedFrom" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.derivedFrom" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.derivedFrom">#REF!</definedName>
-    <definedName name="Observation.device" localSheetId="8">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.device" localSheetId="6">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.device" localSheetId="7">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.device" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.device" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.device" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.device" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.device">#REF!</definedName>
-    <definedName name="Observation.effective_x_" localSheetId="8">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.effective_x_" localSheetId="6">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.effective_x_" localSheetId="7">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.effective_x_" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.effective_x_" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.effective_x_" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.effective_x_" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.effective_x_">#REF!</definedName>
-    <definedName name="Observation.encounter" localSheetId="8">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.encounter" localSheetId="6">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.encounter" localSheetId="7">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.encounter" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.encounter" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.encounter" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.encounter" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.encounter">#REF!</definedName>
-    <definedName name="Observation.focus" localSheetId="8">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.focus" localSheetId="6">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.focus" localSheetId="7">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.focus" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.focus" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.focus" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.focus" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.focus">#REF!</definedName>
-    <definedName name="Observation.hasMember" localSheetId="8">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.hasMember" localSheetId="6">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.hasMember" localSheetId="7">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.hasMember" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.hasMember" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.hasMember" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.hasMember" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.hasMember">#REF!</definedName>
-    <definedName name="Observation.interpretation" localSheetId="8">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.interpretation" localSheetId="6">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.interpretation" localSheetId="7">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.interpretation" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.interpretation" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.interpretation" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.interpretation" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.interpretation">#REF!</definedName>
-    <definedName name="Observation.issued" localSheetId="8">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.issued" localSheetId="6">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.issued" localSheetId="7">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.issued" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.issued" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.issued" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.issued" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.issued">#REF!</definedName>
-    <definedName name="Observation.method" localSheetId="8">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.method" localSheetId="6">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.method" localSheetId="7">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.method" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.method" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.method" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.method" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.method">#REF!</definedName>
-    <definedName name="Observation.note" localSheetId="8">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.note" localSheetId="6">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.note" localSheetId="7">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.note" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.note" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.note" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.note" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.note">#REF!</definedName>
-    <definedName name="Observation.performer" localSheetId="8">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.performer" localSheetId="6">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.performer" localSheetId="7">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.performer" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.performer" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.performer" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.performer" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.performer">#REF!</definedName>
-    <definedName name="Observation.referenceRange" localSheetId="8">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.referenceRange" localSheetId="6">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.referenceRange" localSheetId="7">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.referenceRange" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.referenceRange" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange">#REF!</definedName>
-    <definedName name="Observation.referenceRange.age" localSheetId="8">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.referenceRange.age" localSheetId="6">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.referenceRange.age" localSheetId="7">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.referenceRange.age" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.referenceRange.age" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.age" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.age" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.age">#REF!</definedName>
-    <definedName name="Observation.referenceRange.appliesTo" localSheetId="8">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.referenceRange.appliesTo" localSheetId="6">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.referenceRange.appliesTo" localSheetId="7">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.referenceRange.appliesTo" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.referenceRange.appliesTo" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.appliesTo" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.appliesTo" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.appliesTo">#REF!</definedName>
-    <definedName name="Observation.referenceRange.extension" localSheetId="8">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.referenceRange.extension" localSheetId="6">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.referenceRange.extension" localSheetId="7">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.referenceRange.extension" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.referenceRange.extension" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.extension" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.extension" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.extension">#REF!</definedName>
-    <definedName name="Observation.referenceRange.high" localSheetId="8">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.referenceRange.high" localSheetId="6">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.referenceRange.high" localSheetId="7">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.referenceRange.high" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.referenceRange.high" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.high" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.high" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.high">#REF!</definedName>
-    <definedName name="Observation.referenceRange.id" localSheetId="8">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.referenceRange.id" localSheetId="6">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.referenceRange.id" localSheetId="7">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.referenceRange.id" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.referenceRange.id" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.id" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.id" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.id">#REF!</definedName>
-    <definedName name="Observation.referenceRange.low" localSheetId="8">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.referenceRange.low" localSheetId="6">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.referenceRange.low" localSheetId="7">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.referenceRange.low" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.referenceRange.low" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.low" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.low" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.low">#REF!</definedName>
-    <definedName name="Observation.referenceRange.modifierExtension" localSheetId="8">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.referenceRange.modifierExtension" localSheetId="6">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.referenceRange.modifierExtension" localSheetId="7">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.referenceRange.modifierExtension" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.referenceRange.modifierExtension" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.modifierExtension" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.modifierExtension" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.modifierExtension">#REF!</definedName>
-    <definedName name="Observation.referenceRange.text" localSheetId="8">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.referenceRange.text" localSheetId="6">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.referenceRange.text" localSheetId="7">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.referenceRange.text" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.referenceRange.text" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.text" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.text" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.text">#REF!</definedName>
-    <definedName name="Observation.referenceRange.type" localSheetId="8">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.referenceRange.type" localSheetId="6">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.referenceRange.type" localSheetId="7">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.referenceRange.type" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.referenceRange.type" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.type" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.type" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.type">#REF!</definedName>
-    <definedName name="Observation.specimen" localSheetId="8">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.specimen" localSheetId="6">'[1]Laboratory Result'!#REF!</definedName>
-    <definedName name="Observation.specimen" localSheetId="7">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.specimen" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.specimen" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.specimen" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.specimen" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.specimen">#REF!</definedName>
@@ -237,7 +212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="287">
   <si>
     <t>Legend</t>
   </si>
@@ -1250,100 +1225,13 @@
     <t>Codes</t>
   </si>
   <si>
-    <t>US Core Corresponding Link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foreign Key </t>
-  </si>
-  <si>
     <t>Primary Key</t>
   </si>
   <si>
-    <t>careteam_identifier</t>
-  </si>
-  <si>
-    <t>CareTeam.identifier</t>
-  </si>
-  <si>
     <t>1..1</t>
   </si>
   <si>
-    <t>Enter a unique Id for the careTeam</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition-us-core-careteam-definitions.html#CareTeam.identifier</t>
-  </si>
-  <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>careteam_status</t>
-  </si>
-  <si>
-    <t>CareTeam.status</t>
-  </si>
-  <si>
-    <t>0..1</t>
-  </si>
-  <si>
-    <t>proposed | active | suspended | inactive | entered-in-error | delete</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/R4/valueset-care-team-status.html</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition-us-core-careteam-definitions.html#CareTeam.status</t>
-  </si>
-  <si>
-    <t>careteam_subject</t>
-  </si>
-  <si>
-    <t>CareTeam.subject</t>
-  </si>
-  <si>
-    <r>
-      <t>Reference</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>US Core Patient Profile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Member ID</t>
-  </si>
-  <si>
-    <t>Who the care plan is for. Member Id</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition-us-core-careteam-definitions.html#CareTeam.subject</t>
-  </si>
-  <si>
-    <t>Yes
-CareTeam.subject = Patient.identifier:member.id</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/ValueSet-us-core-careteam-provider-roles.html</t>
@@ -1660,12 +1548,117 @@
   <si>
     <t>on-time</t>
   </si>
+  <si>
+    <t>Insepction ID</t>
+  </si>
+  <si>
+    <t>Insepction_ID</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Inspection date</t>
+  </si>
+  <si>
+    <t>Inspection_date</t>
+  </si>
+  <si>
+    <t>Insepctor ID</t>
+  </si>
+  <si>
+    <t>Insepctor_ID</t>
+  </si>
+  <si>
+    <t>Qty Insepcted</t>
+  </si>
+  <si>
+    <t>Qty_Insepcted</t>
+  </si>
+  <si>
+    <t>Qty Passed</t>
+  </si>
+  <si>
+    <t>Qty Failed</t>
+  </si>
+  <si>
+    <t>Qty_Passed</t>
+  </si>
+  <si>
+    <t>Qty_Failed</t>
+  </si>
+  <si>
+    <t>Reason for failure</t>
+  </si>
+  <si>
+    <t>Failure_Reason</t>
+  </si>
+  <si>
+    <t>Quality rating</t>
+  </si>
+  <si>
+    <t>Quality_rating</t>
+  </si>
+  <si>
+    <t>Defect type</t>
+  </si>
+  <si>
+    <t>Expected delivery date</t>
+  </si>
+  <si>
+    <t>Expected_delivery_date</t>
+  </si>
+  <si>
+    <t>Actual delivery date</t>
+  </si>
+  <si>
+    <t>Actual_delivery_date</t>
+  </si>
+  <si>
+    <t>Lead time (days)</t>
+  </si>
+  <si>
+    <t>Lead_time_days</t>
+  </si>
+  <si>
+    <t>Lead time variability</t>
+  </si>
+  <si>
+    <t>Lead_time_variability</t>
+  </si>
+  <si>
+    <t>Compliance Requirements</t>
+  </si>
+  <si>
+    <t>Compliance status</t>
+  </si>
+  <si>
+    <t>Compliance audit date</t>
+  </si>
+  <si>
+    <t>Audit result</t>
+  </si>
+  <si>
+    <t>Regulatory or certification adherence</t>
+  </si>
+  <si>
+    <t>Compliance_status</t>
+  </si>
+  <si>
+    <t>Audit_result</t>
+  </si>
+  <si>
+    <t>Compliance_audit_date</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1730,25 +1723,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF428BCA"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1821,13 +1795,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2140,15 +2107,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2163,14 +2127,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2181,47 +2139,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2236,27 +2179,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2289,7 +2214,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2298,27 +2223,12 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2338,6 +2248,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2347,13 +2281,25 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3125,149 +3071,149 @@
     <col min="2" max="2" width="107.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="18" customFormat="1" ht="28.2" x14ac:dyDescent="1.05">
-      <c r="A1" s="65" t="s">
-        <v>171</v>
-      </c>
-      <c r="B1" s="65"/>
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="28.2" x14ac:dyDescent="1.05">
+      <c r="A1" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="60"/>
     </row>
     <row r="2" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
     </row>
     <row r="3" spans="1:3" ht="211" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="67" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" s="67"/>
+      <c r="A3" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="62"/>
     </row>
     <row r="4" spans="1:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:3" ht="25.8" x14ac:dyDescent="0.95">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="63"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="25.8" x14ac:dyDescent="0.95">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="69"/>
+      <c r="B14" s="64"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="25" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="36"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="36"/>
+      <c r="C17" s="28"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="30" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="30" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="33" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3280,97 +3226,97 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="38"/>
+      <c r="B25" s="30"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="B32" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="B26" s="38" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="40" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="B33" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="B27" s="38" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="40" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="38" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="40" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="B35" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="B29" s="38" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="40" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" s="30" t="s">
         <v>207</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="B32" s="38" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="B34" s="38" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="B36" s="38" t="s">
-        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3383,6 +3329,486 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1552816B-78C7-4045-B896-5D999A1268A4}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="27.41796875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="29.26171875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.41796875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.15625" style="5"/>
+    <col min="5" max="5" width="22.41796875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="61" style="5" customWidth="1"/>
+    <col min="7" max="7" width="27" style="5" customWidth="1"/>
+    <col min="8" max="8" width="45.68359375" style="5" customWidth="1"/>
+    <col min="9" max="10" width="0" style="5" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="31" style="9" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="24.41796875" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="9.15625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="114.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="45" t="str">
+        <f t="shared" ref="F2:F6" si="0">VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,3,FALSE)</f>
+        <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
+This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+    </row>
+    <row r="3" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>A signed integer in the range −2,147,483,648..2,147,483,647 (32-bit; for larger values, use decimal)  Regex: [0]|[-+]?[1-9][0-9]*</v>
+      </c>
+      <c r="G3" s="45">
+        <v>10</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+    </row>
+    <row r="4" spans="1:12" ht="114" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>A signed integer in the range −2,147,483,648..2,147,483,647 (32-bit; for larger values, use decimal)  Regex: [0]|[-+]?[1-9][0-9]*</v>
+      </c>
+      <c r="G4" s="45">
+        <v>200</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="L4" s="45"/>
+    </row>
+    <row r="5" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>A signed integer in the range −2,147,483,648..2,147,483,647 (32-bit; for larger values, use decimal)  Regex: [0]|[-+]?[1-9][0-9]*</v>
+      </c>
+      <c r="G5" s="45">
+        <v>133</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+    </row>
+    <row r="6" spans="1:12" ht="107.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>A signed integer in the range −2,147,483,648..2,147,483,647 (32-bit; for larger values, use decimal)  Regex: [0]|[-+]?[1-9][0-9]*</v>
+      </c>
+      <c r="G6" s="45">
+        <v>2</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+    </row>
+    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="45" t="str">
+        <f>VLOOKUP(IF(LOWER(LEFT(E7,9))="reference",LEFT(E7,9),E7),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E7,9))="reference",LEFT(E7,9),E7),Primitive_datatypes,3,FALSE)</f>
+        <v>A signed integer in the range −2,147,483,648..2,147,483,647 (32-bit; for larger values, use decimal)  Regex: [0]|[-+]?[1-9][0-9]*</v>
+      </c>
+      <c r="G7" s="45">
+        <v>1</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" location="table" tooltip="Minimum and Maximum # of times the the element can appear in the instance" display="http://hl7.org/fhir/R4/formats.html - table" xr:uid="{DEC5D6FE-5466-44A1-B140-64081AFDC12B}"/>
+    <hyperlink ref="E1" r:id="rId2" location="table" tooltip="Reference to the type of the element" display="http://hl7.org/fhir/R4/formats.html - table" xr:uid="{4D08486B-5B3C-4804-9C5E-DEDC08E38675}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{0E35A557-31D2-4132-9C89-3C06A4C29E13}"/>
+    <hyperlink ref="E2" r:id="rId4" location="code" display="code" xr:uid="{DEF7DC30-E1C2-4AEC-A076-E46BB5FC7AF2}"/>
+    <hyperlink ref="G4" r:id="rId5" display="https://vsac.nlm.nih.gov/valueset/2.16.840.1.113762.1.4.1099.30/expansion" xr:uid="{22D7C63A-CE2C-4ABE-9E4C-79D030CC16B0}"/>
+    <hyperlink ref="G5" r:id="rId6" display="https://vsac.nlm.nih.gov/valueset/2.16.840.1.113762.1.4.1099.30/expansion" xr:uid="{945C2910-D9E6-4C82-9A34-94AD1967C03F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FB4AEC-D0A6-4B9B-8497-DD10F874FFFD}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="27.41796875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="29.26171875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.41796875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.15625" style="5"/>
+    <col min="5" max="5" width="22.41796875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="61" style="5" customWidth="1"/>
+    <col min="7" max="7" width="27" style="5" customWidth="1"/>
+    <col min="8" max="8" width="45.68359375" style="5" customWidth="1"/>
+    <col min="9" max="10" width="0" style="5" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="31" style="9" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="24.41796875" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="9.15625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="114.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="45" t="str">
+        <f t="shared" ref="F2:F5" si="0">VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,3,FALSE)</f>
+        <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
+This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+    </row>
+    <row r="3" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
+This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+    </row>
+    <row r="4" spans="1:12" ht="114" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
+This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
+      </c>
+      <c r="G4" s="45">
+        <v>200</v>
+      </c>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="L4" s="45"/>
+    </row>
+    <row r="5" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
+This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
+      </c>
+      <c r="G5" s="45">
+        <v>133</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" location="table" tooltip="Minimum and Maximum # of times the the element can appear in the instance" display="http://hl7.org/fhir/R4/formats.html - table" xr:uid="{D4D4FA7B-83FA-450F-9469-815E5529526C}"/>
+    <hyperlink ref="E1" r:id="rId2" location="table" tooltip="Reference to the type of the element" display="http://hl7.org/fhir/R4/formats.html - table" xr:uid="{65CE1A79-D54D-455A-BC30-3297626B365C}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{DE58E968-5675-43D8-8B3A-4831E7279741}"/>
+    <hyperlink ref="E2" r:id="rId4" location="code" display="code" xr:uid="{5E6737C4-1D9F-4E6E-8B9A-060AF36C2D83}"/>
+    <hyperlink ref="G4" r:id="rId5" display="https://vsac.nlm.nih.gov/valueset/2.16.840.1.113762.1.4.1099.30/expansion" xr:uid="{5B90AC8C-82A0-479B-87C0-2DEAF7A156C1}"/>
+    <hyperlink ref="G5" r:id="rId6" display="https://vsac.nlm.nih.gov/valueset/2.16.840.1.113762.1.4.1099.30/expansion" xr:uid="{9F18711D-6CBE-4AA4-8789-AB4ACEAED016}"/>
+    <hyperlink ref="E3" r:id="rId7" location="code" display="code" xr:uid="{0EF1C9AA-9193-41E5-BE72-6C9B81DED9D1}"/>
+    <hyperlink ref="E4" r:id="rId8" location="code" display="code" xr:uid="{CDF5D281-CBF3-4F13-9117-BD7888A5ED51}"/>
+    <hyperlink ref="E5" r:id="rId9" location="code" display="code" xr:uid="{37C248D4-B7B2-40BD-BFE4-9E466B278696}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -3399,32 +3825,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.41796875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="120.41796875" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="8.68359375" style="6"/>
+    <col min="1" max="1" width="17.41796875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="120.41796875" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="8.68359375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="46" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>215</v>
+      <c r="B2" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3444,461 +3870,461 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="20.15625" style="6" customWidth="1"/>
-    <col min="2" max="3" width="45.68359375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="42.15625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="43.68359375" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="8.68359375" style="6"/>
+    <col min="1" max="1" width="20.15625" style="5" customWidth="1"/>
+    <col min="2" max="3" width="45.68359375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="42.15625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="43.68359375" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="8.68359375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="49" t="s">
-        <v>214</v>
-      </c>
-      <c r="B2" s="49" t="s">
+      <c r="A2" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="35" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="144" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="158.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="172.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" ht="172.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="6" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="8" t="s">
+      <c r="C24" s="44"/>
+      <c r="D24" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="6" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="8" t="s">
+      <c r="C25" s="44"/>
+      <c r="D25" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E25">
@@ -3932,316 +4358,316 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="27.41796875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="29.26171875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="27.41796875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.15625" style="6"/>
-    <col min="5" max="5" width="22.41796875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="61" style="6" customWidth="1"/>
-    <col min="7" max="7" width="27" style="6" customWidth="1"/>
-    <col min="8" max="8" width="45.68359375" style="6" customWidth="1"/>
-    <col min="9" max="10" width="0" style="6" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="31" style="12" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="24.41796875" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="9.15625" style="6"/>
+    <col min="1" max="1" width="27.41796875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="29.26171875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.41796875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.15625" style="5"/>
+    <col min="5" max="5" width="22.41796875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="61" style="5" customWidth="1"/>
+    <col min="7" max="7" width="27" style="5" customWidth="1"/>
+    <col min="8" max="8" width="45.68359375" style="5" customWidth="1"/>
+    <col min="9" max="10" width="0" style="5" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="31" style="9" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="24.41796875" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="9.15625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>150</v>
+      <c r="L1" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="114.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="50" t="str">
+      <c r="F2" s="36" t="str">
         <f t="shared" ref="F2:F6" si="0">VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,3,FALSE)</f>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G2" s="50" t="s">
-        <v>254</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>228</v>
-      </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50" t="s">
-        <v>246</v>
+      <c r="G2" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>247</v>
-      </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="50" t="s">
+      <c r="D3" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="50" t="str">
+      <c r="F3" s="36" t="str">
         <f t="shared" si="0"/>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G3" s="50" t="s">
-        <v>255</v>
-      </c>
-      <c r="H3" s="50" t="s">
-        <v>247</v>
-      </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
+      <c r="G3" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
     </row>
     <row r="4" spans="1:12" ht="114" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>248</v>
-      </c>
-      <c r="C4" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="50" t="s">
+      <c r="D4" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="50" t="str">
+      <c r="F4" s="36" t="str">
         <f t="shared" si="0"/>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="36">
         <v>998036555</v>
       </c>
-      <c r="H4" s="50" t="s">
-        <v>248</v>
-      </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="L4" s="50"/>
+      <c r="H4" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="L4" s="36"/>
     </row>
     <row r="5" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>249</v>
-      </c>
-      <c r="C5" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="50" t="s">
+      <c r="D5" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="50" t="str">
+      <c r="F5" s="36" t="str">
         <f t="shared" si="0"/>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G5" s="50" t="s">
-        <v>256</v>
-      </c>
-      <c r="H5" s="50" t="s">
-        <v>249</v>
-      </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
+      <c r="G5" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:12" ht="107.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>230</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>250</v>
-      </c>
-      <c r="C6" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="E6" s="50" t="s">
+      <c r="D6" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="50" t="str">
+      <c r="F6" s="36" t="str">
         <f t="shared" si="0"/>
         <v>A signed integer in the range −2,147,483,648..2,147,483,647 (32-bit; for larger values, use decimal)  Regex: [0]|[-+]?[1-9][0-9]*</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6" s="36">
         <v>5</v>
       </c>
-      <c r="H6" s="50" t="s">
-        <v>250</v>
-      </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
+      <c r="H6" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
     </row>
     <row r="7" spans="1:12" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="C7" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="E7" s="50" t="s">
+      <c r="D7" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="50" t="str">
+      <c r="F7" s="36" t="str">
         <f>VLOOKUP(IF(LOWER(LEFT(E7,9))="reference",LEFT(E7,9),E7),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E7,9))="reference",LEFT(E7,9),E7),Primitive_datatypes,3,FALSE)</f>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G7" s="50" t="s">
-        <v>257</v>
-      </c>
-      <c r="H7" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
+      <c r="G7" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
     </row>
     <row r="8" spans="1:12" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>232</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>252</v>
-      </c>
-      <c r="C8" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="E8" s="50" t="s">
+      <c r="D8" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="50" t="str">
+      <c r="F8" s="36" t="str">
         <f>VLOOKUP(IF(LOWER(LEFT(E8,9))="reference",LEFT(E8,9),E8),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E8,9))="reference",LEFT(E8,9),E8),Primitive_datatypes,3,FALSE)</f>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G8" s="50" t="s">
-        <v>258</v>
-      </c>
-      <c r="H8" s="50" t="s">
-        <v>252</v>
-      </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
+      <c r="G8" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
     </row>
     <row r="9" spans="1:12" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>253</v>
-      </c>
-      <c r="C9" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" s="50" t="s">
+      <c r="D9" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="F9" s="50" t="str">
+      <c r="F9" s="36" t="str">
         <f>VLOOKUP(IF(LOWER(LEFT(E9,9))="reference",LEFT(E9,9),E9),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E9,9))="reference",LEFT(E9,9),E9),Primitive_datatypes,3,FALSE)</f>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G9" s="50" t="s">
-        <v>259</v>
-      </c>
-      <c r="H9" s="50" t="s">
-        <v>253</v>
-      </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
+      <c r="G9" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4261,361 +4687,361 @@
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G10"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="27.41796875" style="71" customWidth="1"/>
-    <col min="2" max="2" width="29.26171875" style="71" customWidth="1"/>
-    <col min="3" max="3" width="27.41796875" style="71" customWidth="1"/>
-    <col min="4" max="4" width="9.15625" style="71"/>
-    <col min="5" max="5" width="15" style="71" customWidth="1"/>
-    <col min="6" max="6" width="61" style="71" customWidth="1"/>
-    <col min="7" max="7" width="27" style="75" customWidth="1"/>
-    <col min="8" max="8" width="45.68359375" style="71" customWidth="1"/>
-    <col min="9" max="10" width="0" style="71" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="31" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="24.41796875" style="71" customWidth="1"/>
-    <col min="14" max="16384" width="9.15625" style="71"/>
+    <col min="1" max="1" width="27.41796875" style="52" customWidth="1"/>
+    <col min="2" max="2" width="29.26171875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="27.41796875" style="52" customWidth="1"/>
+    <col min="4" max="4" width="9.15625" style="52"/>
+    <col min="5" max="5" width="15" style="52" customWidth="1"/>
+    <col min="6" max="6" width="61" style="52" customWidth="1"/>
+    <col min="7" max="7" width="27" style="56" customWidth="1"/>
+    <col min="8" max="8" width="45.68359375" style="52" customWidth="1"/>
+    <col min="9" max="10" width="0" style="52" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="31" style="28" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="24.41796875" style="52" customWidth="1"/>
+    <col min="14" max="16384" width="9.15625" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="73" t="s">
+      <c r="G1" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="70" t="s">
+      <c r="K1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="M1" s="70" t="s">
-        <v>260</v>
+      <c r="L1" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="51" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="114.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="71" t="s">
-        <v>227</v>
-      </c>
-      <c r="B2" s="71" t="s">
-        <v>243</v>
-      </c>
-      <c r="C2" s="71" t="s">
+      <c r="A2" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="71" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="71" t="s">
+      <c r="D2" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="72" t="str">
+      <c r="F2" s="53" t="str">
         <f t="shared" ref="F2:F6" si="0">VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,3,FALSE)</f>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G2" s="74" t="s">
-        <v>261</v>
-      </c>
-      <c r="H2" s="72" t="s">
-        <v>244</v>
-      </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="76" t="s">
-        <v>156</v>
+      <c r="G2" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="65" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="71" t="s">
-        <v>228</v>
-      </c>
-      <c r="B3" s="71" t="s">
-        <v>235</v>
-      </c>
-      <c r="C3" s="71" t="s">
+      <c r="A3" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="71" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="71" t="s">
+      <c r="D3" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="72" t="str">
+      <c r="F3" s="53" t="str">
         <f t="shared" si="0"/>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G3" s="74" t="s">
-        <v>269</v>
-      </c>
-      <c r="H3" s="72" t="s">
-        <v>245</v>
-      </c>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="77"/>
+      <c r="G3" s="55" t="s">
+        <v>250</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="66"/>
     </row>
     <row r="4" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="71" t="s">
-        <v>172</v>
-      </c>
-      <c r="B4" s="71" t="s">
-        <v>236</v>
-      </c>
-      <c r="C4" s="71" t="s">
+      <c r="A4" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="71" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="71" t="s">
+      <c r="D4" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="72" t="str">
+      <c r="F4" s="53" t="str">
         <f t="shared" si="0"/>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G4" s="74">
+      <c r="G4" s="55">
         <v>20000</v>
       </c>
-      <c r="H4" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72" t="s">
-        <v>170</v>
-      </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="78"/>
+      <c r="H4" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="L4" s="53"/>
+      <c r="M4" s="67"/>
     </row>
     <row r="5" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="71" t="s">
-        <v>229</v>
-      </c>
-      <c r="B5" s="71" t="s">
-        <v>237</v>
-      </c>
-      <c r="C5" s="71" t="s">
+      <c r="A5" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="71" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="71" t="s">
+      <c r="D5" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="72" t="str">
+      <c r="F5" s="53" t="str">
         <f t="shared" si="0"/>
         <v>A date, or partial date (e.g. just year or year + month) as used in human communication. The format is YYYY, YYYY-MM, or YYYY-MM-DD, e.g. 2018, 1973-06, or 1905-08-23. There SHALL be no time zone. Dates SHALL be valid dates  Regex: ([0-9]([0-9]([0-9][1-9]|[1-9]0)|[1-9]00)|[1-9]000)(-(0[1-9]|1[0-2])(-(0[1-9]|[1-2][0-9]|3[0-1]))?)?</v>
       </c>
-      <c r="G5" s="81">
+      <c r="G5" s="59">
         <v>45303</v>
       </c>
-      <c r="H5" s="72" t="s">
-        <v>229</v>
-      </c>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
+      <c r="H5" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
     </row>
     <row r="6" spans="1:13" ht="107.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="71" t="s">
-        <v>230</v>
-      </c>
-      <c r="B6" s="71" t="s">
-        <v>238</v>
-      </c>
-      <c r="C6" s="71" t="s">
+      <c r="A6" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="71" t="s">
-        <v>153</v>
-      </c>
-      <c r="E6" s="71" t="s">
+      <c r="D6" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="72" t="str">
+      <c r="F6" s="53" t="str">
         <f t="shared" si="0"/>
         <v>A date, or partial date (e.g. just year or year + month) as used in human communication. The format is YYYY, YYYY-MM, or YYYY-MM-DD, e.g. 2018, 1973-06, or 1905-08-23. There SHALL be no time zone. Dates SHALL be valid dates  Regex: ([0-9]([0-9]([0-9][1-9]|[1-9]0)|[1-9]00)|[1-9]000)(-(0[1-9]|1[0-2])(-(0[1-9]|[1-2][0-9]|3[0-1]))?)?</v>
       </c>
-      <c r="G6" s="81">
+      <c r="G6" s="59">
         <v>45527</v>
       </c>
-      <c r="H6" s="72" t="s">
-        <v>230</v>
-      </c>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
+      <c r="H6" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
     </row>
     <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="71" t="s">
-        <v>231</v>
-      </c>
-      <c r="B7" s="71" t="s">
-        <v>239</v>
-      </c>
-      <c r="C7" s="71" t="s">
+      <c r="A7" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="71" t="s">
-        <v>153</v>
-      </c>
-      <c r="E7" s="71" t="s">
+      <c r="D7" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="72" t="str">
+      <c r="F7" s="53" t="str">
         <f>VLOOKUP(IF(LOWER(LEFT(E7,9))="reference",LEFT(E7,9),E7),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E7,9))="reference",LEFT(E7,9),E7),Primitive_datatypes,3,FALSE)</f>
         <v>A signed integer in the range −2,147,483,648..2,147,483,647 (32-bit; for larger values, use decimal)  Regex: [0]|[-+]?[1-9][0-9]*</v>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="55">
         <v>5</v>
       </c>
-      <c r="H7" s="72" t="s">
-        <v>231</v>
-      </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
+      <c r="H7" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
     </row>
     <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="71" t="s">
-        <v>232</v>
-      </c>
-      <c r="B8" s="71" t="s">
-        <v>240</v>
-      </c>
-      <c r="C8" s="71" t="s">
+      <c r="A8" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="71" t="s">
-        <v>153</v>
-      </c>
-      <c r="E8" s="71" t="s">
+      <c r="D8" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="72" t="str">
+      <c r="F8" s="53" t="str">
         <f>VLOOKUP(IF(LOWER(LEFT(E8,9))="reference",LEFT(E8,9),E8),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E8,9))="reference",LEFT(E8,9),E8),Primitive_datatypes,3,FALSE)</f>
         <v>A signed integer in the range −2,147,483,648..2,147,483,647 (32-bit; for larger values, use decimal)  Regex: [0]|[-+]?[1-9][0-9]*</v>
       </c>
-      <c r="G8" s="74">
+      <c r="G8" s="55">
         <v>5</v>
       </c>
-      <c r="H8" s="72" t="s">
-        <v>232</v>
-      </c>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
+      <c r="H8" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
     </row>
     <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="71" t="s">
-        <v>233</v>
-      </c>
-      <c r="B9" s="71" t="s">
-        <v>241</v>
-      </c>
-      <c r="C9" s="71" t="s">
+      <c r="A9" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="71" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" s="71" t="s">
+      <c r="D9" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="72" t="str">
+      <c r="F9" s="53" t="str">
         <f>VLOOKUP(IF(LOWER(LEFT(E9,9))="reference",LEFT(E9,9),E9),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E9,9))="reference",LEFT(E9,9),E9),Primitive_datatypes,3,FALSE)</f>
         <v>Rational numbers that have a decimal representation. See below about the precision of the number  Regex: -?(0|[1-9][0-9]*)(\.[0-9]+)?([eE][+-]?[0-9]+)?</v>
       </c>
-      <c r="G9" s="74">
+      <c r="G9" s="55">
         <v>153.69999999999999</v>
       </c>
-      <c r="H9" s="72" t="s">
-        <v>233</v>
-      </c>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
+      <c r="H9" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
     </row>
     <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="71" t="s">
-        <v>234</v>
-      </c>
-      <c r="B10" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="C10" s="71" t="s">
+      <c r="A10" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="71" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" s="71" t="s">
+      <c r="D10" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="72" t="str">
+      <c r="F10" s="53" t="str">
         <f>VLOOKUP(IF(LOWER(LEFT(E10,9))="reference",LEFT(E10,9),E10),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E10,9))="reference",LEFT(E10,9),E10),Primitive_datatypes,3,FALSE)</f>
         <v>Rational numbers that have a decimal representation. See below about the precision of the number  Regex: -?(0|[1-9][0-9]*)(\.[0-9]+)?([eE][+-]?[0-9]+)?</v>
       </c>
-      <c r="G10" s="74">
+      <c r="G10" s="55">
         <v>768.5</v>
       </c>
-      <c r="H10" s="72" t="s">
-        <v>234</v>
-      </c>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
+      <c r="H10" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4637,362 +5063,362 @@
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="27.41796875" style="71" customWidth="1"/>
-    <col min="2" max="2" width="29.26171875" style="71" customWidth="1"/>
-    <col min="3" max="3" width="27.41796875" style="71" customWidth="1"/>
-    <col min="4" max="4" width="9.15625" style="80"/>
-    <col min="5" max="5" width="15" style="71" customWidth="1"/>
-    <col min="6" max="6" width="61" style="71" customWidth="1"/>
-    <col min="7" max="7" width="27" style="75" customWidth="1"/>
-    <col min="8" max="8" width="45.68359375" style="71" customWidth="1"/>
-    <col min="9" max="10" width="0" style="71" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="31" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="24.41796875" style="71" customWidth="1"/>
-    <col min="14" max="16384" width="9.15625" style="71"/>
+    <col min="1" max="1" width="27.41796875" style="52" customWidth="1"/>
+    <col min="2" max="2" width="29.26171875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="27.41796875" style="52" customWidth="1"/>
+    <col min="4" max="4" width="9.15625" style="58"/>
+    <col min="5" max="5" width="15" style="52" customWidth="1"/>
+    <col min="6" max="6" width="61" style="52" customWidth="1"/>
+    <col min="7" max="7" width="27" style="56" customWidth="1"/>
+    <col min="8" max="8" width="45.68359375" style="52" customWidth="1"/>
+    <col min="9" max="10" width="0" style="52" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="31" style="28" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="24.41796875" style="52" customWidth="1"/>
+    <col min="14" max="16384" width="9.15625" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="73" t="s">
+      <c r="G1" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="70" t="s">
+      <c r="K1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="M1" s="70" t="s">
-        <v>260</v>
+      <c r="L1" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="51" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="71" t="s">
-        <v>262</v>
-      </c>
-      <c r="B2" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="C2" s="71" t="s">
+      <c r="A2" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="80">
+      <c r="D2" s="58">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="72" t="str">
+      <c r="F2" s="53" t="str">
         <f>VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,3,FALSE)</f>
         <v>A signed integer in the range −2,147,483,648..2,147,483,647 (32-bit; for larger values, use decimal)  Regex: [0]|[-+]?[1-9][0-9]*</v>
       </c>
-      <c r="G2" s="74">
+      <c r="G2" s="55">
         <v>3000</v>
       </c>
-      <c r="H2" s="72" t="s">
-        <v>264</v>
-      </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="M2" s="72"/>
+      <c r="H2" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="M2" s="53"/>
     </row>
     <row r="3" spans="1:13" ht="114.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="71" t="s">
-        <v>227</v>
-      </c>
-      <c r="B3" s="71" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="71" t="s">
+      <c r="A3" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="71" t="s">
+      <c r="D3" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="72" t="str">
+      <c r="F3" s="53" t="str">
         <f t="shared" ref="F3:F8" si="0">VLOOKUP(IF(LOWER(LEFT(E3,9))="reference",LEFT(E3,9),E3),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E3,9))="reference",LEFT(E3,9),E3),Primitive_datatypes,3,FALSE)</f>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G3" s="74" t="s">
-        <v>261</v>
-      </c>
-      <c r="H3" s="72" t="s">
-        <v>244</v>
-      </c>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
+      <c r="G3" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
     </row>
     <row r="4" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="71" t="s">
-        <v>228</v>
-      </c>
-      <c r="B4" s="71" t="s">
-        <v>235</v>
-      </c>
-      <c r="C4" s="71" t="s">
+      <c r="A4" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="71" t="s">
+      <c r="D4" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="72" t="str">
+      <c r="F4" s="53" t="str">
         <f t="shared" si="0"/>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G4" s="74" t="s">
-        <v>254</v>
-      </c>
-      <c r="H4" s="72" t="s">
-        <v>245</v>
-      </c>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
+      <c r="G4" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
     </row>
     <row r="5" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="71" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" s="71" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" s="71" t="s">
+      <c r="A5" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="71" t="s">
+      <c r="D5" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="72" t="str">
+      <c r="F5" s="53" t="str">
         <f t="shared" si="0"/>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G5" s="74">
+      <c r="G5" s="55">
         <v>20000</v>
       </c>
-      <c r="H5" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72" t="s">
-        <v>170</v>
-      </c>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
+      <c r="H5" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
     </row>
     <row r="6" spans="1:13" ht="107.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="71" t="s">
-        <v>230</v>
-      </c>
-      <c r="B6" s="71" t="s">
-        <v>238</v>
-      </c>
-      <c r="C6" s="71" t="s">
+      <c r="A6" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="E6" s="71" t="s">
+      <c r="D6" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="72" t="str">
+      <c r="F6" s="53" t="str">
         <f t="shared" si="0"/>
         <v>A date, or partial date (e.g. just year or year + month) as used in human communication. The format is YYYY, YYYY-MM, or YYYY-MM-DD, e.g. 2018, 1973-06, or 1905-08-23. There SHALL be no time zone. Dates SHALL be valid dates  Regex: ([0-9]([0-9]([0-9][1-9]|[1-9]0)|[1-9]00)|[1-9]000)(-(0[1-9]|1[0-2])(-(0[1-9]|[1-2][0-9]|3[0-1]))?)?</v>
       </c>
-      <c r="G6" s="81">
+      <c r="G6" s="59">
         <v>45527</v>
       </c>
-      <c r="H6" s="72" t="s">
-        <v>230</v>
-      </c>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
+      <c r="H6" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
     </row>
     <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="71" t="s">
-        <v>265</v>
-      </c>
-      <c r="B7" s="71" t="s">
-        <v>266</v>
-      </c>
-      <c r="C7" s="71" t="s">
+      <c r="A7" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="E7" s="71" t="s">
+      <c r="D7" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="72" t="str">
+      <c r="F7" s="53" t="str">
         <f>VLOOKUP(IF(LOWER(LEFT(E7,9))="reference",LEFT(E7,9),E7),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E7,9))="reference",LEFT(E7,9),E7),Primitive_datatypes,3,FALSE)</f>
         <v>A signed integer in the range −2,147,483,648..2,147,483,647 (32-bit; for larger values, use decimal)  Regex: [0]|[-+]?[1-9][0-9]*</v>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="55">
         <v>5</v>
       </c>
-      <c r="H7" s="72" t="s">
-        <v>231</v>
-      </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
+      <c r="H7" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
     </row>
     <row r="8" spans="1:13" ht="144" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="B8" s="71" t="s">
-        <v>268</v>
-      </c>
-      <c r="C8" s="71" t="s">
+      <c r="A8" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="E8" s="71" t="s">
+      <c r="D8" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="72" t="str">
+      <c r="F8" s="53" t="str">
         <f t="shared" si="0"/>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G8" s="74" t="s">
-        <v>270</v>
-      </c>
-      <c r="H8" s="72" t="s">
-        <v>232</v>
-      </c>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
+      <c r="G8" s="55" t="s">
+        <v>251</v>
+      </c>
+      <c r="H8" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
     </row>
     <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="71" t="s">
-        <v>233</v>
-      </c>
-      <c r="B9" s="71" t="s">
-        <v>241</v>
-      </c>
-      <c r="C9" s="71" t="s">
+      <c r="A9" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" s="71" t="s">
+      <c r="D9" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="72" t="str">
+      <c r="F9" s="53" t="str">
         <f>VLOOKUP(IF(LOWER(LEFT(E9,9))="reference",LEFT(E9,9),E9),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E9,9))="reference",LEFT(E9,9),E9),Primitive_datatypes,3,FALSE)</f>
         <v>Rational numbers that have a decimal representation. See below about the precision of the number  Regex: -?(0|[1-9][0-9]*)(\.[0-9]+)?([eE][+-]?[0-9]+)?</v>
       </c>
-      <c r="G9" s="74">
+      <c r="G9" s="55">
         <v>153.69999999999999</v>
       </c>
-      <c r="H9" s="72" t="s">
-        <v>233</v>
-      </c>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
+      <c r="H9" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
     </row>
     <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="71" t="s">
-        <v>234</v>
-      </c>
-      <c r="B10" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="C10" s="71" t="s">
+      <c r="A10" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" s="71" t="s">
+      <c r="D10" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="72" t="str">
+      <c r="F10" s="53" t="str">
         <f>VLOOKUP(IF(LOWER(LEFT(E10,9))="reference",LEFT(E10,9),E10),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E10,9))="reference",LEFT(E10,9),E10),Primitive_datatypes,3,FALSE)</f>
         <v>Rational numbers that have a decimal representation. See below about the precision of the number  Regex: -?(0|[1-9][0-9]*)(\.[0-9]+)?([eE][+-]?[0-9]+)?</v>
       </c>
-      <c r="G10" s="74">
+      <c r="G10" s="55">
         <v>768.5</v>
       </c>
-      <c r="H10" s="72" t="s">
-        <v>234</v>
-      </c>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
+      <c r="H10" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5004,685 +5430,1121 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1552816B-78C7-4045-B896-5D999A1268A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984CC974-A668-43D1-8F16-75E0AC84647E}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="27.41796875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="29.26171875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="27.41796875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.15625" style="6"/>
-    <col min="5" max="5" width="22.41796875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="61" style="6" customWidth="1"/>
-    <col min="7" max="7" width="27" style="6" customWidth="1"/>
-    <col min="8" max="8" width="45.68359375" style="6" customWidth="1"/>
-    <col min="9" max="10" width="0" style="6" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="31" style="12" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="24.41796875" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="9.15625" style="6"/>
+    <col min="1" max="1" width="27.41796875" style="52" customWidth="1"/>
+    <col min="2" max="2" width="29.26171875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="27.41796875" style="52" customWidth="1"/>
+    <col min="4" max="4" width="9.15625" style="52"/>
+    <col min="5" max="5" width="15" style="52" customWidth="1"/>
+    <col min="6" max="6" width="61" style="52" customWidth="1"/>
+    <col min="7" max="7" width="27" style="56" customWidth="1"/>
+    <col min="8" max="8" width="45.68359375" style="52" customWidth="1"/>
+    <col min="9" max="10" width="0" style="52" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="31" style="28" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="24.41796875" style="52" customWidth="1"/>
+    <col min="14" max="16384" width="9.15625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="68" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="71" t="str">
+        <f>VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,3,FALSE)</f>
+        <v>A signed integer in the range −2,147,483,648..2,147,483,647 (32-bit; for larger values, use decimal)  Regex: [0]|[-+]?[1-9][0-9]*</v>
+      </c>
+      <c r="G2" s="72">
+        <v>123</v>
+      </c>
+      <c r="H2" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="114.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="59" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="59" t="s">
+      <c r="M2" s="71"/>
+    </row>
+    <row r="3" spans="1:13" ht="114.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="59" t="s">
+      <c r="D3" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="59" t="str">
-        <f t="shared" ref="F2:F6" si="0">VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,3,FALSE)</f>
+      <c r="F3" s="71" t="str">
+        <f t="shared" ref="F3:F7" si="0">VLOOKUP(IF(LOWER(LEFT(E3,9))="reference",LEFT(E3,9),E3),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E3,9))="reference",LEFT(E3,9),E3),Primitive_datatypes,3,FALSE)</f>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G2" s="59" t="s">
-        <v>184</v>
-      </c>
-      <c r="H2" s="59" t="s">
-        <v>185</v>
-      </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-    </row>
-    <row r="3" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="59" t="s">
+      <c r="G3" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="H3" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="73"/>
+    </row>
+    <row r="4" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D4" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
+This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>250</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="73"/>
+    </row>
+    <row r="5" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="E3" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="59" t="str">
+      <c r="B5" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="71" t="str">
         <f t="shared" si="0"/>
+        <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
+This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
+      </c>
+      <c r="G5" s="72">
+        <v>20000</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5" s="71"/>
+      <c r="M5" s="73"/>
+    </row>
+    <row r="6" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>A date, or partial date (e.g. just year or year + month) as used in human communication. The format is YYYY, YYYY-MM, or YYYY-MM-DD, e.g. 2018, 1973-06, or 1905-08-23. There SHALL be no time zone. Dates SHALL be valid dates  Regex: ([0-9]([0-9]([0-9][1-9]|[1-9]0)|[1-9]00)|[1-9]000)(-(0[1-9]|1[0-2])(-(0[1-9]|[1-2][0-9]|3[0-1]))?)?</v>
+      </c>
+      <c r="G6" s="74">
+        <v>45303</v>
+      </c>
+      <c r="H6" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+    </row>
+    <row r="7" spans="1:13" ht="144" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
+This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
+      </c>
+      <c r="G7" s="72">
+        <v>123</v>
+      </c>
+      <c r="H7" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+    </row>
+    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="70" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="71" t="str">
+        <f>VLOOKUP(IF(LOWER(LEFT(E8,9))="reference",LEFT(E8,9),E8),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E8,9))="reference",LEFT(E8,9),E8),Primitive_datatypes,3,FALSE)</f>
         <v>A signed integer in the range −2,147,483,648..2,147,483,647 (32-bit; for larger values, use decimal)  Regex: [0]|[-+]?[1-9][0-9]*</v>
       </c>
-      <c r="G3" s="59">
-        <v>10</v>
-      </c>
-      <c r="H3" s="59" t="s">
-        <v>186</v>
-      </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-    </row>
-    <row r="4" spans="1:12" ht="114" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="59" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4" s="59" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="59" t="s">
+      <c r="G8" s="72">
+        <v>123</v>
+      </c>
+      <c r="H8" s="70" t="s">
+        <v>259</v>
+      </c>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+    </row>
+    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="70" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="59" t="str">
-        <f t="shared" si="0"/>
+      <c r="D9" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="F9" s="71" t="str">
+        <f>VLOOKUP(IF(LOWER(LEFT(E9,9))="reference",LEFT(E9,9),E9),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E9,9))="reference",LEFT(E9,9),E9),Primitive_datatypes,3,FALSE)</f>
         <v>A signed integer in the range −2,147,483,648..2,147,483,647 (32-bit; for larger values, use decimal)  Regex: [0]|[-+]?[1-9][0-9]*</v>
       </c>
-      <c r="G4" s="59">
-        <v>200</v>
-      </c>
-      <c r="H4" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59" t="s">
-        <v>170</v>
-      </c>
-      <c r="L4" s="59"/>
-    </row>
-    <row r="5" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="59" t="str">
-        <f t="shared" si="0"/>
+      <c r="G9" s="72">
+        <v>123</v>
+      </c>
+      <c r="H9" s="70" t="s">
+        <v>261</v>
+      </c>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+    </row>
+    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="70" t="s">
+        <v>262</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" s="71" t="str">
+        <f>VLOOKUP(IF(LOWER(LEFT(E10,9))="reference",LEFT(E10,9),E10),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E10,9))="reference",LEFT(E10,9),E10),Primitive_datatypes,3,FALSE)</f>
         <v>A signed integer in the range −2,147,483,648..2,147,483,647 (32-bit; for larger values, use decimal)  Regex: [0]|[-+]?[1-9][0-9]*</v>
       </c>
-      <c r="G5" s="59">
-        <v>133</v>
-      </c>
-      <c r="H5" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-    </row>
-    <row r="6" spans="1:12" ht="107.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="59" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="E6" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="59" t="str">
-        <f t="shared" si="0"/>
+      <c r="G10" s="72">
+        <v>123</v>
+      </c>
+      <c r="H10" s="70" t="s">
+        <v>262</v>
+      </c>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+    </row>
+    <row r="11" spans="1:13" ht="144" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="71" t="str">
+        <f t="shared" ref="F11:F13" si="1">VLOOKUP(IF(LOWER(LEFT(E11,9))="reference",LEFT(E11,9),E11),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E11,9))="reference",LEFT(E11,9),E11),Primitive_datatypes,3,FALSE)</f>
+        <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
+This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
+      </c>
+      <c r="G11" s="72">
+        <v>123</v>
+      </c>
+      <c r="H11" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+    </row>
+    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="70" t="s">
+        <v>267</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>268</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="F12" s="71" t="str">
+        <f>VLOOKUP(IF(LOWER(LEFT(E12,9))="reference",LEFT(E12,9),E12),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E12,9))="reference",LEFT(E12,9),E12),Primitive_datatypes,3,FALSE)</f>
         <v>A signed integer in the range −2,147,483,648..2,147,483,647 (32-bit; for larger values, use decimal)  Regex: [0]|[-+]?[1-9][0-9]*</v>
       </c>
-      <c r="G6" s="59">
-        <v>2</v>
-      </c>
-      <c r="H6" s="59" t="s">
-        <v>189</v>
-      </c>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-    </row>
-    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="59" t="s">
-        <v>177</v>
-      </c>
-      <c r="B7" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="C7" s="59" t="s">
+      <c r="G12" s="72">
+        <v>123</v>
+      </c>
+      <c r="H12" s="70" t="s">
+        <v>267</v>
+      </c>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+    </row>
+    <row r="13" spans="1:13" ht="144" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="70" t="s">
+        <v>269</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>269</v>
+      </c>
+      <c r="C13" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="E7" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="59" t="str">
-        <f>VLOOKUP(IF(LOWER(LEFT(E7,9))="reference",LEFT(E7,9),E7),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E7,9))="reference",LEFT(E7,9),E7),Primitive_datatypes,3,FALSE)</f>
-        <v>A signed integer in the range −2,147,483,648..2,147,483,647 (32-bit; for larger values, use decimal)  Regex: [0]|[-+]?[1-9][0-9]*</v>
-      </c>
-      <c r="G7" s="59">
-        <v>1</v>
-      </c>
-      <c r="H7" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
+      <c r="D13" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="71" t="str">
+        <f t="shared" si="1"/>
+        <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
+This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
+      </c>
+      <c r="G13" s="72">
+        <v>768.5</v>
+      </c>
+      <c r="H13" s="70" t="s">
+        <v>269</v>
+      </c>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" location="table" tooltip="Minimum and Maximum # of times the the element can appear in the instance" display="http://hl7.org/fhir/R4/formats.html - table" xr:uid="{DEC5D6FE-5466-44A1-B140-64081AFDC12B}"/>
-    <hyperlink ref="E1" r:id="rId2" location="table" tooltip="Reference to the type of the element" display="http://hl7.org/fhir/R4/formats.html - table" xr:uid="{4D08486B-5B3C-4804-9C5E-DEDC08E38675}"/>
-    <hyperlink ref="K4" r:id="rId3" xr:uid="{0E35A557-31D2-4132-9C89-3C06A4C29E13}"/>
-    <hyperlink ref="E2" r:id="rId4" location="code" display="code" xr:uid="{DEF7DC30-E1C2-4AEC-A076-E46BB5FC7AF2}"/>
-    <hyperlink ref="G4" r:id="rId5" display="https://vsac.nlm.nih.gov/valueset/2.16.840.1.113762.1.4.1099.30/expansion" xr:uid="{22D7C63A-CE2C-4ABE-9E4C-79D030CC16B0}"/>
-    <hyperlink ref="G5" r:id="rId6" display="https://vsac.nlm.nih.gov/valueset/2.16.840.1.113762.1.4.1099.30/expansion" xr:uid="{945C2910-D9E6-4C82-9A34-94AD1967C03F}"/>
+    <hyperlink ref="D1" r:id="rId1" location="table" tooltip="Minimum and Maximum # of times the the element can appear in the instance" display="http://hl7.org/fhir/R4/formats.html - table" xr:uid="{D6BAE5C0-7BCF-4D51-8E53-EDF9EFDE195A}"/>
+    <hyperlink ref="K5" r:id="rId2" xr:uid="{879F2EB4-9FE7-45F1-9154-07832FD51B40}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FB4AEC-D0A6-4B9B-8497-DD10F874FFFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D0B59-EE27-46C9-9DE5-50895888BE07}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="27.41796875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="29.26171875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="27.41796875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.15625" style="6"/>
-    <col min="5" max="5" width="22.41796875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="61" style="6" customWidth="1"/>
-    <col min="7" max="7" width="27" style="6" customWidth="1"/>
-    <col min="8" max="8" width="45.68359375" style="6" customWidth="1"/>
-    <col min="9" max="10" width="0" style="6" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="31" style="12" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="24.41796875" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="9.15625" style="6"/>
+    <col min="1" max="1" width="27.41796875" style="52" customWidth="1"/>
+    <col min="2" max="2" width="29.26171875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="27.41796875" style="52" customWidth="1"/>
+    <col min="4" max="4" width="9.15625" style="52"/>
+    <col min="5" max="5" width="15" style="52" customWidth="1"/>
+    <col min="6" max="6" width="61" style="52" customWidth="1"/>
+    <col min="7" max="7" width="27" style="56" customWidth="1"/>
+    <col min="8" max="8" width="27.41796875" style="52" customWidth="1"/>
+    <col min="9" max="10" width="0" style="52" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="31" style="28" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="24.41796875" style="52" customWidth="1"/>
+    <col min="14" max="16384" width="9.15625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="42" t="s">
+      <c r="H1" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="42" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="114.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" s="59" t="s">
+      <c r="L1" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="68" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="114.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="59" t="s">
+      <c r="D2" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="59" t="str">
+      <c r="F2" s="71" t="str">
         <f t="shared" ref="F2:F5" si="0">VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,3,FALSE)</f>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G2" s="59" t="s">
-        <v>199</v>
-      </c>
-      <c r="H2" s="59" t="s">
-        <v>200</v>
-      </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-    </row>
-    <row r="3" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="59" t="s">
+      <c r="G2" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="H2" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="73"/>
+    </row>
+    <row r="3" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="59" t="s">
+      <c r="D3" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="59" t="str">
+      <c r="F3" s="71" t="str">
         <f t="shared" si="0"/>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-    </row>
-    <row r="4" spans="1:12" ht="114" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="59" t="s">
-        <v>195</v>
-      </c>
-      <c r="B4" s="59" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="59" t="s">
+      <c r="G3" s="72" t="s">
+        <v>250</v>
+      </c>
+      <c r="H3" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="73"/>
+    </row>
+    <row r="4" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="59" t="s">
+      <c r="D4" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="59" t="str">
+      <c r="F4" s="71" t="str">
         <f t="shared" si="0"/>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G4" s="59">
-        <v>200</v>
-      </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59" t="s">
-        <v>170</v>
-      </c>
-      <c r="L4" s="59"/>
-    </row>
-    <row r="5" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="59" t="s">
-        <v>197</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="59" t="s">
+      <c r="G4" s="72">
+        <v>20000</v>
+      </c>
+      <c r="H4" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="F5" s="59" t="str">
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="L4" s="71"/>
+      <c r="M4" s="73"/>
+    </row>
+    <row r="5" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
-This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
-      </c>
-      <c r="G5" s="59">
-        <v>133</v>
-      </c>
-      <c r="H5" s="59" t="s">
-        <v>201</v>
-      </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
+        <v>A date, or partial date (e.g. just year or year + month) as used in human communication. The format is YYYY, YYYY-MM, or YYYY-MM-DD, e.g. 2018, 1973-06, or 1905-08-23. There SHALL be no time zone. Dates SHALL be valid dates  Regex: ([0-9]([0-9]([0-9][1-9]|[1-9]0)|[1-9]00)|[1-9]000)(-(0[1-9]|1[0-2])(-(0[1-9]|[1-2][0-9]|3[0-1]))?)?</v>
+      </c>
+      <c r="G5" s="74">
+        <v>45303</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+    </row>
+    <row r="6" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="70" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="71" t="str">
+        <f t="shared" ref="F6" si="1">VLOOKUP(IF(LOWER(LEFT(E6,9))="reference",LEFT(E6,9),E6),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E6,9))="reference",LEFT(E6,9),E6),Primitive_datatypes,3,FALSE)</f>
+        <v>A date, or partial date (e.g. just year or year + month) as used in human communication. The format is YYYY, YYYY-MM, or YYYY-MM-DD, e.g. 2018, 1973-06, or 1905-08-23. There SHALL be no time zone. Dates SHALL be valid dates  Regex: ([0-9]([0-9]([0-9][1-9]|[1-9]0)|[1-9]00)|[1-9]000)(-(0[1-9]|1[0-2])(-(0[1-9]|[1-2][0-9]|3[0-1]))?)?</v>
+      </c>
+      <c r="G6" s="74">
+        <v>45303</v>
+      </c>
+      <c r="H6" s="70" t="s">
+        <v>270</v>
+      </c>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+    </row>
+    <row r="7" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="70" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="71" t="str">
+        <f t="shared" ref="F7" si="2">VLOOKUP(IF(LOWER(LEFT(E7,9))="reference",LEFT(E7,9),E7),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E7,9))="reference",LEFT(E7,9),E7),Primitive_datatypes,3,FALSE)</f>
+        <v>A date, or partial date (e.g. just year or year + month) as used in human communication. The format is YYYY, YYYY-MM, or YYYY-MM-DD, e.g. 2018, 1973-06, or 1905-08-23. There SHALL be no time zone. Dates SHALL be valid dates  Regex: ([0-9]([0-9]([0-9][1-9]|[1-9]0)|[1-9]00)|[1-9]000)(-(0[1-9]|1[0-2])(-(0[1-9]|[1-2][0-9]|3[0-1]))?)?</v>
+      </c>
+      <c r="G7" s="74">
+        <v>45303</v>
+      </c>
+      <c r="H7" s="70" t="s">
+        <v>272</v>
+      </c>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+    </row>
+    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="70" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="71" t="str">
+        <f>VLOOKUP(IF(LOWER(LEFT(E8,9))="reference",LEFT(E8,9),E8),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E8,9))="reference",LEFT(E8,9),E8),Primitive_datatypes,3,FALSE)</f>
+        <v>A signed integer in the range −2,147,483,648..2,147,483,647 (32-bit; for larger values, use decimal)  Regex: [0]|[-+]?[1-9][0-9]*</v>
+      </c>
+      <c r="G8" s="72">
+        <v>123</v>
+      </c>
+      <c r="H8" s="70" t="s">
+        <v>274</v>
+      </c>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+    </row>
+    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="70" t="s">
+        <v>276</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>277</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="F9" s="71" t="str">
+        <f>VLOOKUP(IF(LOWER(LEFT(E9,9))="reference",LEFT(E9,9),E9),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E9,9))="reference",LEFT(E9,9),E9),Primitive_datatypes,3,FALSE)</f>
+        <v>A signed integer in the range −2,147,483,648..2,147,483,647 (32-bit; for larger values, use decimal)  Regex: [0]|[-+]?[1-9][0-9]*</v>
+      </c>
+      <c r="G9" s="72">
+        <v>123</v>
+      </c>
+      <c r="H9" s="70" t="s">
+        <v>276</v>
+      </c>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" location="table" tooltip="Minimum and Maximum # of times the the element can appear in the instance" display="http://hl7.org/fhir/R4/formats.html - table" xr:uid="{D4D4FA7B-83FA-450F-9469-815E5529526C}"/>
-    <hyperlink ref="E1" r:id="rId2" location="table" tooltip="Reference to the type of the element" display="http://hl7.org/fhir/R4/formats.html - table" xr:uid="{65CE1A79-D54D-455A-BC30-3297626B365C}"/>
-    <hyperlink ref="K4" r:id="rId3" xr:uid="{DE58E968-5675-43D8-8B3A-4831E7279741}"/>
-    <hyperlink ref="E2" r:id="rId4" location="code" display="code" xr:uid="{5E6737C4-1D9F-4E6E-8B9A-060AF36C2D83}"/>
-    <hyperlink ref="G4" r:id="rId5" display="https://vsac.nlm.nih.gov/valueset/2.16.840.1.113762.1.4.1099.30/expansion" xr:uid="{5B90AC8C-82A0-479B-87C0-2DEAF7A156C1}"/>
-    <hyperlink ref="G5" r:id="rId6" display="https://vsac.nlm.nih.gov/valueset/2.16.840.1.113762.1.4.1099.30/expansion" xr:uid="{9F18711D-6CBE-4AA4-8789-AB4ACEAED016}"/>
-    <hyperlink ref="E3" r:id="rId7" location="code" display="code" xr:uid="{0EF1C9AA-9193-41E5-BE72-6C9B81DED9D1}"/>
-    <hyperlink ref="E4" r:id="rId8" location="code" display="code" xr:uid="{CDF5D281-CBF3-4F13-9117-BD7888A5ED51}"/>
-    <hyperlink ref="E5" r:id="rId9" location="code" display="code" xr:uid="{37C248D4-B7B2-40BD-BFE4-9E466B278696}"/>
+    <hyperlink ref="D1" r:id="rId1" location="table" tooltip="Minimum and Maximum # of times the the element can appear in the instance" display="http://hl7.org/fhir/R4/formats.html - table" xr:uid="{2DDA445E-807E-4828-8ADC-80BFDECF8557}"/>
+    <hyperlink ref="K4" r:id="rId2" xr:uid="{58B658E8-4971-4A60-9670-66F56D8B9140}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC203835-3664-44C3-9DEA-293635FA50DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A269AB-C39E-4C96-888D-28612AFDFA96}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18" style="6" customWidth="1"/>
-    <col min="2" max="2" width="17.68359375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.41796875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.15625" style="6"/>
-    <col min="5" max="5" width="22.41796875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="38.68359375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="27" style="6" customWidth="1"/>
-    <col min="8" max="8" width="30.15625" style="6" customWidth="1"/>
-    <col min="9" max="10" width="0" style="6" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="28.41796875" style="12" customWidth="1"/>
-    <col min="12" max="12" width="51.41796875" style="12" customWidth="1"/>
-    <col min="13" max="13" width="43.68359375" style="6" customWidth="1"/>
-    <col min="14" max="14" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.15625" style="6"/>
+    <col min="1" max="1" width="27.41796875" style="52" customWidth="1"/>
+    <col min="2" max="2" width="29.26171875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="27.41796875" style="52" customWidth="1"/>
+    <col min="4" max="4" width="9.15625" style="52"/>
+    <col min="5" max="5" width="15" style="52" customWidth="1"/>
+    <col min="6" max="6" width="61" style="52" customWidth="1"/>
+    <col min="7" max="7" width="27" style="56" customWidth="1"/>
+    <col min="8" max="8" width="45.68359375" style="52" customWidth="1"/>
+    <col min="9" max="10" width="0" style="52" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="31" style="28" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="24.41796875" style="52" customWidth="1"/>
+    <col min="14" max="16384" width="9.15625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="68" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="114.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="246.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="59" t="str">
-        <f>VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,3,FALSE)</f>
+      <c r="F2" s="71" t="str">
+        <f t="shared" ref="F2:F7" si="0">VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,3,FALSE)</f>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="157.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="G2" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="H2" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="73"/>
+    </row>
+    <row r="3" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="59" t="str">
-        <f>VLOOKUP(IF(LOWER(LEFT(E3,9))="reference",LEFT(E3,9),E3),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E3,9))="reference",LEFT(E3,9),E3),Primitive_datatypes,3,FALSE)</f>
-        <v>Indicates that the value is taken from a set of controlled strings defined elsewhere (see Using codes for further discussion). Technically, a code is restricted to a string which has at least one character and no leading or trailing whitespace, and where there is no whitespace other than single spaces in the contents.
-This data type can be bound to a ValueSet  Regex: [^\s]+(\s[^\s]+)*</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="D3" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
+This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
+      </c>
+      <c r="G3" s="72" t="s">
+        <v>250</v>
+      </c>
+      <c r="H3" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="73"/>
+    </row>
+    <row r="4" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="F4" s="59" t="str">
-        <f>VLOOKUP(IF(LOWER(LEFT(E4,9))="reference",LEFT(E4,9),E4),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E4,9))="reference",LEFT(E4,9),E4),Primitive_datatypes,3,FALSE)</f>
-        <v xml:space="preserve">A unique business identifier that is used to link to another entity type. E.g. Unique Member Id to link to Patient/Member record.  </v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="N4" s="4"/>
+      <c r="D4" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
+This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
+      </c>
+      <c r="G4" s="72">
+        <v>20000</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="L4" s="71"/>
+      <c r="M4" s="73"/>
+    </row>
+    <row r="5" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="70" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
+This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
+      </c>
+      <c r="G5" s="74">
+        <v>45303</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>279</v>
+      </c>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+    </row>
+    <row r="6" spans="1:13" ht="107.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="70" t="s">
+        <v>280</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>A date, or partial date (e.g. just year or year + month) as used in human communication. The format is YYYY, YYYY-MM, or YYYY-MM-DD, e.g. 2018, 1973-06, or 1905-08-23. There SHALL be no time zone. Dates SHALL be valid dates  Regex: ([0-9]([0-9]([0-9][1-9]|[1-9]0)|[1-9]00)|[1-9]000)(-(0[1-9]|1[0-2])(-(0[1-9]|[1-2][0-9]|3[0-1]))?)?</v>
+      </c>
+      <c r="G6" s="74">
+        <v>45527</v>
+      </c>
+      <c r="H6" s="70" t="s">
+        <v>280</v>
+      </c>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+    </row>
+    <row r="7" spans="1:13" ht="144" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
+This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
+      </c>
+      <c r="G7" s="72" t="s">
+        <v>286</v>
+      </c>
+      <c r="H7" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+    </row>
+    <row r="8" spans="1:13" ht="144" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="70" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="71" t="str">
+        <f t="shared" ref="F8" si="1">VLOOKUP(IF(LOWER(LEFT(E8,9))="reference",LEFT(E8,9),E8),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E8,9))="reference",LEFT(E8,9),E8),Primitive_datatypes,3,FALSE)</f>
+        <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
+This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
+      </c>
+      <c r="G8" s="72" t="s">
+        <v>286</v>
+      </c>
+      <c r="H8" s="70" t="s">
+        <v>282</v>
+      </c>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" location="table" tooltip="Minimum and Maximum # of times the the element can appear in the instance" display="http://hl7.org/fhir/R4/formats.html - table" xr:uid="{1E558A4D-ED76-4760-BD0C-D8A063F336D4}"/>
-    <hyperlink ref="E1" r:id="rId2" location="table" tooltip="Reference to the type of the element" display="http://hl7.org/fhir/R4/formats.html - table" xr:uid="{07B7D68B-BF63-49E7-A0BE-05ADA3848A7D}"/>
-    <hyperlink ref="K3" r:id="rId3" xr:uid="{54801BEC-D9AE-49C9-97CA-93882979BC09}"/>
-    <hyperlink ref="E3" r:id="rId4" location="code" xr:uid="{8D693D65-9372-4995-BC69-22816970BEA1}"/>
-    <hyperlink ref="L3" r:id="rId5" location="CareTeam.status" xr:uid="{6B88FF60-5A82-4A3B-8C56-D27341ACD788}"/>
-    <hyperlink ref="L4" r:id="rId6" location="CareTeam.subject" xr:uid="{2DF5A422-9692-47F0-BEC7-A14F0DAD0BB1}"/>
-    <hyperlink ref="E2" r:id="rId7" location="code" display="code" xr:uid="{F955B75A-DE86-48C5-AB1A-4532496E0790}"/>
-    <hyperlink ref="L2" r:id="rId8" location="CareTeam.identifier" xr:uid="{9B8C4364-F913-4DA2-8834-12474E309FEE}"/>
+    <hyperlink ref="D1" r:id="rId1" location="table" tooltip="Minimum and Maximum # of times the the element can appear in the instance" display="http://hl7.org/fhir/R4/formats.html - table" xr:uid="{10DF68DA-08EC-4A9A-AED8-4A4A3DE84718}"/>
+    <hyperlink ref="K4" r:id="rId2" xr:uid="{37CAE49D-263D-40E6-97C8-920F27FC1C4C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5696,6 +6558,25 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="eaabd3e7-0ce8-42bc-8d66-c3c3304c2dfc">
+      <UserInfo>
+        <DisplayName>Anu Shrestha</DisplayName>
+        <AccountId>10</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Mark Scrimshire</DisplayName>
+        <AccountId>15</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100503221AB708796409AD860ADE6AAD593" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c0ffc22559576c48cf28c990a0d7a275">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c4f2b4a-d872-4bc3-92aa-c9e0e0ce3abf" xmlns:ns3="eaabd3e7-0ce8-42bc-8d66-c3c3304c2dfc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9cbde4cd61471a7f78e266c6f4f58277" ns2:_="" ns3:_="">
     <xsd:import namespace="8c4f2b4a-d872-4bc3-92aa-c9e0e0ce3abf"/>
@@ -5906,25 +6787,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="eaabd3e7-0ce8-42bc-8d66-c3c3304c2dfc">
-      <UserInfo>
-        <DisplayName>Anu Shrestha</DisplayName>
-        <AccountId>10</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Mark Scrimshire</DisplayName>
-        <AccountId>15</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F3EF619-D41E-4705-9CA4-A271305D0F0D}">
   <ds:schemaRefs>
@@ -5934,6 +6796,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{209C933E-2063-4D4C-8812-09EB74513F28}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="eaabd3e7-0ce8-42bc-8d66-c3c3304c2dfc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D172CF95-4E7F-46C6-B917-F98C8BD1FD91}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5950,14 +6822,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{209C933E-2063-4D4C-8812-09EB74513F28}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="eaabd3e7-0ce8-42bc-8d66-c3c3304c2dfc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data-pipeline-app/documentation/docs/Capstone Supplier Performance Analysis Data Guide.xlsx
+++ b/data-pipeline-app/documentation/docs/Capstone Supplier Performance Analysis Data Guide.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHAKTI_GOYAL\capstone-project\data-eng-capstone-project-teameinstein\data-pipeline-app\documentation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC64CD6-4069-47C2-BF9F-2AAE821FE453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F14590-A955-4ACC-8319-FB18548EF4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="893" firstSheet="1" activeTab="10" xr2:uid="{C47A438E-1665-47B3-8C39-BF484954AF81}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="893" firstSheet="1" activeTab="11" xr2:uid="{C47A438E-1665-47B3-8C39-BF484954AF81}"/>
   </bookViews>
   <sheets>
     <sheet name="User Guide" sheetId="7" r:id="rId1"/>
     <sheet name="Version History" sheetId="8" r:id="rId2"/>
     <sheet name="Data Types" sheetId="14" r:id="rId3"/>
-    <sheet name="Supplier Data" sheetId="21" r:id="rId4"/>
-    <sheet name="PurchaseOrders" sheetId="20" r:id="rId5"/>
-    <sheet name="Delivery Data" sheetId="22" r:id="rId6"/>
-    <sheet name="Quality Control Data" sheetId="23" r:id="rId7"/>
-    <sheet name="Lead Time Data" sheetId="24" r:id="rId8"/>
-    <sheet name="Compliance Data" sheetId="25" r:id="rId9"/>
-    <sheet name="Inventory Management Data" sheetId="10" r:id="rId10"/>
-    <sheet name="Perfomance Feedback" sheetId="18" r:id="rId11"/>
+    <sheet name="Supplier Data" sheetId="27" r:id="rId4"/>
+    <sheet name="Cost Data" sheetId="26" r:id="rId5"/>
+    <sheet name="PurchaseOrders" sheetId="20" r:id="rId6"/>
+    <sheet name="Delivery Data" sheetId="22" r:id="rId7"/>
+    <sheet name="Quality Control Data" sheetId="23" r:id="rId8"/>
+    <sheet name="Lead Time Data" sheetId="24" r:id="rId9"/>
+    <sheet name="Compliance Data" sheetId="25" r:id="rId10"/>
+    <sheet name="Inventory Management Data" sheetId="10" r:id="rId11"/>
+    <sheet name="Perfomance Feedback" sheetId="18" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
     <definedName name="base64binary" localSheetId="2">'Data Types'!$A$9</definedName>
@@ -40,142 +41,142 @@
     <definedName name="instant" localSheetId="2">'Data Types'!$A$10</definedName>
     <definedName name="integer" localSheetId="2">'Data Types'!#REF!</definedName>
     <definedName name="markdown" localSheetId="2">'Data Types'!$A$17</definedName>
-    <definedName name="Observation.bodySite" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.bodySite" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.bodySite" localSheetId="11">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.bodySite" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.bodySite" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.bodySite">#REF!</definedName>
     <definedName name="Observation.category">#REF!</definedName>
     <definedName name="Observation.code">#REF!</definedName>
-    <definedName name="Observation.component" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.component" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.component" localSheetId="11">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.component" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.component" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.component">#REF!</definedName>
     <definedName name="Observation.component.code">#REF!</definedName>
-    <definedName name="Observation.component.extension" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.component.extension" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.component.extension" localSheetId="11">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.component.extension" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.component.extension" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.component.extension">#REF!</definedName>
-    <definedName name="Observation.component.id" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.component.id" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.component.id" localSheetId="11">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.component.id" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.component.id" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.component.id">#REF!</definedName>
-    <definedName name="Observation.component.modifierExtension" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.component.modifierExtension" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.component.modifierExtension" localSheetId="11">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.component.modifierExtension" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.component.modifierExtension" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.component.modifierExtension">#REF!</definedName>
     <definedName name="Observation.dataAbsentReason">#REF!</definedName>
-    <definedName name="Observation.derivedFrom" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.derivedFrom" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.derivedFrom" localSheetId="11">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.derivedFrom" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.derivedFrom" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.derivedFrom">#REF!</definedName>
-    <definedName name="Observation.device" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.device" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.device" localSheetId="11">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.device" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.device" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.device">#REF!</definedName>
-    <definedName name="Observation.effective_x_" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.effective_x_" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.effective_x_" localSheetId="11">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.effective_x_" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.effective_x_" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.effective_x_">#REF!</definedName>
-    <definedName name="Observation.encounter" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.encounter" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.encounter" localSheetId="11">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.encounter" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.encounter" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.encounter">#REF!</definedName>
-    <definedName name="Observation.focus" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.focus" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.focus" localSheetId="11">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.focus" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.focus" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.focus">#REF!</definedName>
-    <definedName name="Observation.hasMember" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.hasMember" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.hasMember" localSheetId="11">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.hasMember" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.hasMember" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.hasMember">#REF!</definedName>
-    <definedName name="Observation.interpretation" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.interpretation" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.interpretation" localSheetId="11">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.interpretation" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.interpretation" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.interpretation">#REF!</definedName>
-    <definedName name="Observation.issued" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.issued" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.issued" localSheetId="11">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.issued" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.issued" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.issued">#REF!</definedName>
-    <definedName name="Observation.method" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.method" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.method" localSheetId="11">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.method" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.method" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.method">#REF!</definedName>
-    <definedName name="Observation.note" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.note" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.note" localSheetId="11">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.note" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.note" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.note">#REF!</definedName>
-    <definedName name="Observation.performer" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.performer" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.performer" localSheetId="11">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.performer" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.performer" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.performer">#REF!</definedName>
-    <definedName name="Observation.referenceRange" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.referenceRange" localSheetId="11">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange">#REF!</definedName>
-    <definedName name="Observation.referenceRange.age" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.age" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.referenceRange.age" localSheetId="11">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.age" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.age" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.age">#REF!</definedName>
-    <definedName name="Observation.referenceRange.appliesTo" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.appliesTo" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.referenceRange.appliesTo" localSheetId="11">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.appliesTo" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.appliesTo" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.appliesTo">#REF!</definedName>
-    <definedName name="Observation.referenceRange.extension" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.extension" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.referenceRange.extension" localSheetId="11">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.extension" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.extension" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.extension">#REF!</definedName>
-    <definedName name="Observation.referenceRange.high" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.high" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.referenceRange.high" localSheetId="11">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.high" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.high" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.high">#REF!</definedName>
-    <definedName name="Observation.referenceRange.id" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.id" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.referenceRange.id" localSheetId="11">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.id" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.id" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.id">#REF!</definedName>
-    <definedName name="Observation.referenceRange.low" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.low" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.referenceRange.low" localSheetId="11">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.low" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.low" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.low">#REF!</definedName>
-    <definedName name="Observation.referenceRange.modifierExtension" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.modifierExtension" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.referenceRange.modifierExtension" localSheetId="11">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.modifierExtension" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.modifierExtension" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.modifierExtension">#REF!</definedName>
-    <definedName name="Observation.referenceRange.text" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.text" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.referenceRange.text" localSheetId="11">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.text" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.text" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.text">#REF!</definedName>
-    <definedName name="Observation.referenceRange.type" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.type" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.referenceRange.type" localSheetId="11">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.type" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.type" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.referenceRange.type">#REF!</definedName>
-    <definedName name="Observation.specimen" localSheetId="9">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.specimen" localSheetId="10">'[1]Laboratory Result'!#REF!</definedName>
+    <definedName name="Observation.specimen" localSheetId="11">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.specimen" localSheetId="0">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.specimen" localSheetId="1">'[1]Laboratory Result'!#REF!</definedName>
     <definedName name="Observation.specimen">#REF!</definedName>
@@ -212,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="316">
   <si>
     <t>Legend</t>
   </si>
@@ -1474,48 +1475,9 @@
     <t>Enter Supplier ID</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Supplier name</t>
-  </si>
-  <si>
-    <t>Contact information</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Supplier rating</t>
-  </si>
-  <si>
-    <t>Supplier certification details</t>
-  </si>
-  <si>
-    <t>Industry type</t>
-  </si>
-  <si>
-    <t>Financial stability indicators</t>
-  </si>
-  <si>
     <t>S1000</t>
   </si>
   <si>
-    <t>Cisco</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>ISO</t>
-  </si>
-  <si>
-    <t>Medical</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>Unique Key</t>
   </si>
   <si>
@@ -1652,13 +1614,139 @@
   </si>
   <si>
     <t>Hi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreign Key </t>
+  </si>
+  <si>
+    <t>supplier_id</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Should Start with SXXXX. XXXX Integer and the range is 15000 to 16000</t>
+  </si>
+  <si>
+    <t>S15001,S15002 etc</t>
+  </si>
+  <si>
+    <t>Value should be unique</t>
+  </si>
+  <si>
+    <t>supplier_name</t>
+  </si>
+  <si>
+    <t>0..1</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Unique Name</t>
+  </si>
+  <si>
+    <t>Random value</t>
+  </si>
+  <si>
+    <t>contact_information</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>It will be phone number</t>
+  </si>
+  <si>
+    <t>10 digit numeric starts from 2000000001</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>It will be company location</t>
+  </si>
+  <si>
+    <t>"New York", "Los Angeles", "Chicago", "Houston", "Philadelphia", "Phoenix", "San Antonio", "San Diego", "Dallas", "San Jose"</t>
+  </si>
+  <si>
+    <t>supplier_rating</t>
+  </si>
+  <si>
+    <t>It should be Integer</t>
+  </si>
+  <si>
+    <t>Integer 1 to 10</t>
+  </si>
+  <si>
+    <t>supplier_certification_details</t>
+  </si>
+  <si>
+    <t>Value should be with in this list</t>
+  </si>
+  <si>
+    <t>"ISO 9001", "ISO 14001", "ISO 27001", "ISO 45001", "ISO 22000", "ISO 50001", "OHSAS 18001", "ISO 26000", "ISO 22301", "ISO 37001"</t>
+  </si>
+  <si>
+    <t>industry_type</t>
+  </si>
+  <si>
+    <t>"Manufacturing","Technology"</t>
+  </si>
+  <si>
+    <t>financial_stability_indicators</t>
+  </si>
+  <si>
+    <t>"Stable", "Moderate", "High Risk"</t>
+  </si>
+  <si>
+    <t>po_number</t>
+  </si>
+  <si>
+    <t>Should Start with POXXXX. XXXX Integer and the range is 1000 to 1500</t>
+  </si>
+  <si>
+    <t>PO1000,PO1001</t>
+  </si>
+  <si>
+    <t>po_number,supplier_id,item_id should be unique</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>Should Start with IXXXXX. XXXXX Integer and the range is 20000 to 210000</t>
+  </si>
+  <si>
+    <t>I20001,I20002</t>
+  </si>
+  <si>
+    <t>purchase_cost</t>
+  </si>
+  <si>
+    <t>Cost will be number</t>
+  </si>
+  <si>
+    <t>&lt;1000</t>
+  </si>
+  <si>
+    <t>transportation_cost</t>
+  </si>
+  <si>
+    <t>customs_duties_cost</t>
+  </si>
+  <si>
+    <t>handling_cost</t>
+  </si>
+  <si>
+    <t>cost_variances_over_time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1805,6 +1893,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF428BCA"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2110,12 +2211,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2187,9 +2285,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2257,6 +2352,27 @@
     <xf numFmtId="14" fontId="8" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2281,26 +2397,45 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3071,149 +3206,149 @@
     <col min="2" max="2" width="107.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" ht="28.2" x14ac:dyDescent="1.05">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:3" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="1.05">
+      <c r="A1" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="60"/>
+      <c r="B1" s="65"/>
     </row>
     <row r="2" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
     </row>
     <row r="3" spans="1:3" ht="211" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="67" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="67"/>
     </row>
     <row r="4" spans="1:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="25.8" x14ac:dyDescent="0.95">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="68"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="25.8" x14ac:dyDescent="0.95">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="64"/>
+      <c r="B14" s="69"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="28"/>
+      <c r="C16" s="27"/>
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="28"/>
+      <c r="C17" s="27"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="29" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="32" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3226,96 +3361,96 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="30"/>
+      <c r="B25" s="29"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="29" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="29" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="29" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="29" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="29" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="29" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="29" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="29" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="29" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="29" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="29" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3333,6 +3468,316 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A269AB-C39E-4C96-888D-28612AFDFA96}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="27.41796875" style="50" customWidth="1"/>
+    <col min="2" max="2" width="29.26171875" style="50" customWidth="1"/>
+    <col min="3" max="3" width="27.41796875" style="50" customWidth="1"/>
+    <col min="4" max="4" width="9.15625" style="50"/>
+    <col min="5" max="5" width="15" style="50" customWidth="1"/>
+    <col min="6" max="6" width="61" style="50" customWidth="1"/>
+    <col min="7" max="7" width="27" style="54" customWidth="1"/>
+    <col min="8" max="8" width="45.68359375" style="50" customWidth="1"/>
+    <col min="9" max="10" width="0" style="50" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="31" style="27" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="24.41796875" style="50" customWidth="1"/>
+    <col min="14" max="16384" width="9.15625" style="50"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="114.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="61" t="str">
+        <f t="shared" ref="F2:F7" si="0">VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,3,FALSE)</f>
+        <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
+This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="63"/>
+    </row>
+    <row r="3" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
+This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="63"/>
+    </row>
+    <row r="4" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="60" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
+This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
+      </c>
+      <c r="G4" s="62">
+        <v>20000</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>265</v>
+      </c>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="L4" s="61"/>
+      <c r="M4" s="63"/>
+    </row>
+    <row r="5" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
+This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
+      </c>
+      <c r="G5" s="64">
+        <v>45303</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+    </row>
+    <row r="6" spans="1:13" ht="107.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="60" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>A date, or partial date (e.g. just year or year + month) as used in human communication. The format is YYYY, YYYY-MM, or YYYY-MM-DD, e.g. 2018, 1973-06, or 1905-08-23. There SHALL be no time zone. Dates SHALL be valid dates  Regex: ([0-9]([0-9]([0-9][1-9]|[1-9]0)|[1-9]00)|[1-9]000)(-(0[1-9]|1[0-2])(-(0[1-9]|[1-2][0-9]|3[0-1]))?)?</v>
+      </c>
+      <c r="G6" s="64">
+        <v>45527</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>267</v>
+      </c>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+    </row>
+    <row r="7" spans="1:13" ht="144" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="60" t="s">
+        <v>268</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
+This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>273</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>268</v>
+      </c>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+    </row>
+    <row r="8" spans="1:13" ht="144" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="61" t="str">
+        <f t="shared" ref="F8" si="1">VLOOKUP(IF(LOWER(LEFT(E8,9))="reference",LEFT(E8,9),E8),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E8,9))="reference",LEFT(E8,9),E8),Primitive_datatypes,3,FALSE)</f>
+        <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
+This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>273</v>
+      </c>
+      <c r="H8" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" location="table" tooltip="Minimum and Maximum # of times the the element can appear in the instance" display="http://hl7.org/fhir/R4/formats.html - table" xr:uid="{10DF68DA-08EC-4A9A-AED8-4A4A3DE84718}"/>
+    <hyperlink ref="K4" r:id="rId2" xr:uid="{37CAE49D-263D-40E6-97C8-920F27FC1C4C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1552816B-78C7-4045-B896-5D999A1268A4}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
@@ -3348,18 +3793,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="27.41796875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="29.26171875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="27.41796875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.15625" style="5"/>
-    <col min="5" max="5" width="22.41796875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="61" style="5" customWidth="1"/>
-    <col min="7" max="7" width="27" style="5" customWidth="1"/>
-    <col min="8" max="8" width="45.68359375" style="5" customWidth="1"/>
-    <col min="9" max="10" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="31" style="9" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="24.41796875" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="9.15625" style="5"/>
+    <col min="1" max="1" width="27.41796875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="29.26171875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="27.41796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.15625" style="4"/>
+    <col min="5" max="5" width="22.41796875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="61" style="4" customWidth="1"/>
+    <col min="7" max="7" width="27" style="4" customWidth="1"/>
+    <col min="8" max="8" width="45.68359375" style="4" customWidth="1"/>
+    <col min="9" max="10" width="0" style="4" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="31" style="8" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="24.41796875" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9.15625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3401,193 +3846,193 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="114.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="45" t="str">
+      <c r="F2" s="43" t="str">
         <f t="shared" ref="F2:F6" si="0">VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,3,FALSE)</f>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
     </row>
     <row r="3" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="45" t="str">
+      <c r="F3" s="43" t="str">
         <f t="shared" si="0"/>
         <v>A signed integer in the range −2,147,483,648..2,147,483,647 (32-bit; for larger values, use decimal)  Regex: [0]|[-+]?[1-9][0-9]*</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="43">
         <v>10</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
     </row>
     <row r="4" spans="1:12" ht="114" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="45" t="str">
+      <c r="F4" s="43" t="str">
         <f t="shared" si="0"/>
         <v>A signed integer in the range −2,147,483,648..2,147,483,647 (32-bit; for larger values, use decimal)  Regex: [0]|[-+]?[1-9][0-9]*</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="43">
         <v>200</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45" t="s">
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="L4" s="45"/>
+      <c r="L4" s="43"/>
     </row>
     <row r="5" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="45" t="str">
+      <c r="F5" s="43" t="str">
         <f t="shared" si="0"/>
         <v>A signed integer in the range −2,147,483,648..2,147,483,647 (32-bit; for larger values, use decimal)  Regex: [0]|[-+]?[1-9][0-9]*</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="43">
         <v>133</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
     </row>
     <row r="6" spans="1:12" ht="107.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="45" t="str">
+      <c r="F6" s="43" t="str">
         <f t="shared" si="0"/>
         <v>A signed integer in the range −2,147,483,648..2,147,483,647 (32-bit; for larger values, use decimal)  Regex: [0]|[-+]?[1-9][0-9]*</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="43">
         <v>2</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
     </row>
     <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="45" t="str">
+      <c r="F7" s="43" t="str">
         <f>VLOOKUP(IF(LOWER(LEFT(E7,9))="reference",LEFT(E7,9),E7),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E7,9))="reference",LEFT(E7,9),E7),Primitive_datatypes,3,FALSE)</f>
         <v>A signed integer in the range −2,147,483,648..2,147,483,647 (32-bit; for larger values, use decimal)  Regex: [0]|[-+]?[1-9][0-9]*</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="43">
         <v>1</v>
       </c>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3603,7 +4048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FB4AEC-D0A6-4B9B-8497-DD10F874FFFD}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
@@ -3619,196 +4064,190 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="27.41796875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="29.26171875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="27.41796875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.15625" style="5"/>
-    <col min="5" max="5" width="22.41796875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="61" style="5" customWidth="1"/>
-    <col min="7" max="7" width="27" style="5" customWidth="1"/>
-    <col min="8" max="8" width="45.68359375" style="5" customWidth="1"/>
-    <col min="9" max="10" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="31" style="9" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="24.41796875" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="9.15625" style="5"/>
+    <col min="1" max="1" width="27.41796875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="29.26171875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="27.41796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.15625" style="4"/>
+    <col min="5" max="5" width="22.41796875" style="54" customWidth="1"/>
+    <col min="6" max="6" width="61" style="4" customWidth="1"/>
+    <col min="7" max="7" width="27" style="4" customWidth="1"/>
+    <col min="8" max="8" width="45.68359375" style="4" customWidth="1"/>
+    <col min="9" max="10" width="0" style="4" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="31" style="8" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="24.41796875" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9.15625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="33" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="114.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="45" t="str">
+      <c r="F2" s="43" t="str">
         <f t="shared" ref="F2:F5" si="0">VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,3,FALSE)</f>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
     </row>
     <row r="3" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="45" t="str">
+      <c r="F3" s="43" t="str">
         <f t="shared" si="0"/>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
     </row>
     <row r="4" spans="1:12" ht="114" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="45" t="str">
+      <c r="F4" s="43" t="str">
         <f t="shared" si="0"/>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="43">
         <v>200</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45" t="s">
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="L4" s="45"/>
+      <c r="L4" s="43"/>
     </row>
     <row r="5" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="45" t="str">
+      <c r="F5" s="43" t="str">
         <f t="shared" si="0"/>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="43">
         <v>133</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" location="table" tooltip="Minimum and Maximum # of times the the element can appear in the instance" display="http://hl7.org/fhir/R4/formats.html - table" xr:uid="{D4D4FA7B-83FA-450F-9469-815E5529526C}"/>
-    <hyperlink ref="E1" r:id="rId2" location="table" tooltip="Reference to the type of the element" display="http://hl7.org/fhir/R4/formats.html - table" xr:uid="{65CE1A79-D54D-455A-BC30-3297626B365C}"/>
-    <hyperlink ref="K4" r:id="rId3" xr:uid="{DE58E968-5675-43D8-8B3A-4831E7279741}"/>
-    <hyperlink ref="E2" r:id="rId4" location="code" display="code" xr:uid="{5E6737C4-1D9F-4E6E-8B9A-060AF36C2D83}"/>
-    <hyperlink ref="G4" r:id="rId5" display="https://vsac.nlm.nih.gov/valueset/2.16.840.1.113762.1.4.1099.30/expansion" xr:uid="{5B90AC8C-82A0-479B-87C0-2DEAF7A156C1}"/>
-    <hyperlink ref="G5" r:id="rId6" display="https://vsac.nlm.nih.gov/valueset/2.16.840.1.113762.1.4.1099.30/expansion" xr:uid="{9F18711D-6CBE-4AA4-8789-AB4ACEAED016}"/>
-    <hyperlink ref="E3" r:id="rId7" location="code" display="code" xr:uid="{0EF1C9AA-9193-41E5-BE72-6C9B81DED9D1}"/>
-    <hyperlink ref="E4" r:id="rId8" location="code" display="code" xr:uid="{CDF5D281-CBF3-4F13-9117-BD7888A5ED51}"/>
-    <hyperlink ref="E5" r:id="rId9" location="code" display="code" xr:uid="{37C248D4-B7B2-40BD-BFE4-9E466B278696}"/>
+    <hyperlink ref="K4" r:id="rId1" xr:uid="{DE58E968-5675-43D8-8B3A-4831E7279741}"/>
+    <hyperlink ref="G4" r:id="rId2" display="https://vsac.nlm.nih.gov/valueset/2.16.840.1.113762.1.4.1099.30/expansion" xr:uid="{5B90AC8C-82A0-479B-87C0-2DEAF7A156C1}"/>
+    <hyperlink ref="G5" r:id="rId3" display="https://vsac.nlm.nih.gov/valueset/2.16.840.1.113762.1.4.1099.30/expansion" xr:uid="{9F18711D-6CBE-4AA4-8789-AB4ACEAED016}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -3825,32 +4264,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.41796875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="120.41796875" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="8.68359375" style="5"/>
+    <col min="1" max="1" width="17.41796875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="120.41796875" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.68359375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="44" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3870,461 +4309,461 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="20.15625" style="5" customWidth="1"/>
-    <col min="2" max="3" width="45.68359375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="42.15625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="43.68359375" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="8.68359375" style="5"/>
+    <col min="1" max="1" width="20.15625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="45.68359375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="42.15625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="43.68359375" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="8.68359375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="34" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="144" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="158.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" ht="172.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" ht="172.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="6" t="s">
+      <c r="C24" s="42"/>
+      <c r="D24" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="6" t="s">
+      <c r="C25" s="42"/>
+      <c r="D25" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E25">
@@ -4346,341 +4785,568 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B76883-1163-4BD8-AE4B-A3B81B80495F}">
-  <sheetPr>
-    <tabColor theme="4" tint="0.59999389629810485"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EE2CE7-1DC0-40ED-9767-400842106D10}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="27.41796875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="29.26171875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="27.41796875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.15625" style="5"/>
-    <col min="5" max="5" width="22.41796875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="61" style="5" customWidth="1"/>
-    <col min="7" max="7" width="27" style="5" customWidth="1"/>
-    <col min="8" max="8" width="45.68359375" style="5" customWidth="1"/>
-    <col min="9" max="10" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="31" style="9" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="24.41796875" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="9.15625" style="5"/>
+    <col min="1" max="2" width="23.47265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.68359375" customWidth="1"/>
+    <col min="6" max="6" width="24.7890625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.20703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.47265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="74" t="s">
+        <v>274</v>
+      </c>
+      <c r="L1" s="74" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="114.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="36" t="s">
+    <row r="2" spans="1:12" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="78" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="36" t="str">
-        <f t="shared" ref="F2:F6" si="0">VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,3,FALSE)</f>
-        <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
-This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="36" t="s">
+      <c r="F2" s="80" t="s">
+        <v>277</v>
+      </c>
+      <c r="G2" s="63" t="s">
+        <v>278</v>
+      </c>
+      <c r="H2" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="82" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>281</v>
+      </c>
+      <c r="E3" s="79" t="s">
+        <v>282</v>
+      </c>
+      <c r="F3" s="80" t="s">
+        <v>283</v>
+      </c>
+      <c r="G3" s="81" t="s">
+        <v>284</v>
+      </c>
+      <c r="H3" s="81"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="82" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E4" s="83" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4" s="80" t="s">
+        <v>287</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="H4" s="63"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="82" t="s">
+        <v>292</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="82" t="s">
+        <v>295</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
-This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-    </row>
-    <row r="4" spans="1:12" ht="114" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="36" t="s">
+      <c r="F7" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="82" t="s">
+        <v>298</v>
+      </c>
+      <c r="B8" s="82" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="82" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" s="82" t="s">
+        <v>300</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E9" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
-This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
-      </c>
-      <c r="G4" s="36">
-        <v>998036555</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="L4" s="36"/>
-    </row>
-    <row r="5" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="F5" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
-This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-    </row>
-    <row r="6" spans="1:12" ht="107.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>A signed integer in the range −2,147,483,648..2,147,483,647 (32-bit; for larger values, use decimal)  Regex: [0]|[-+]?[1-9][0-9]*</v>
-      </c>
-      <c r="G6" s="36">
-        <v>5</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-    </row>
-    <row r="7" spans="1:12" ht="144" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>212</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="36" t="str">
-        <f>VLOOKUP(IF(LOWER(LEFT(E7,9))="reference",LEFT(E7,9),E7),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E7,9))="reference",LEFT(E7,9),E7),Primitive_datatypes,3,FALSE)</f>
-        <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
-This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-    </row>
-    <row r="8" spans="1:12" ht="144" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="36" t="str">
-        <f>VLOOKUP(IF(LOWER(LEFT(E8,9))="reference",LEFT(E8,9),E8),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E8,9))="reference",LEFT(E8,9),E8),Primitive_datatypes,3,FALSE)</f>
-        <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
-This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-    </row>
-    <row r="9" spans="1:12" ht="144" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>214</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="F9" s="36" t="str">
-        <f>VLOOKUP(IF(LOWER(LEFT(E9,9))="reference",LEFT(E9,9),E9),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E9,9))="reference",LEFT(E9,9),E9),Primitive_datatypes,3,FALSE)</f>
-        <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
-This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
+      <c r="F9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" location="table" tooltip="Minimum and Maximum # of times the the element can appear in the instance" display="http://hl7.org/fhir/R4/formats.html - table" xr:uid="{FDB549E3-97A4-4DB7-967E-BE97DAE470B8}"/>
-    <hyperlink ref="K4" r:id="rId2" xr:uid="{4F6B6F6E-218C-49AB-8980-D4DA987D48A9}"/>
-    <hyperlink ref="G4" r:id="rId3" display="https://vsac.nlm.nih.gov/valueset/2.16.840.1.113762.1.4.1099.30/expansion" xr:uid="{8C9AD776-A449-433F-AA45-3921B0441E6B}"/>
-    <hyperlink ref="G5" r:id="rId4" display="https://vsac.nlm.nih.gov/valueset/2.16.840.1.113762.1.4.1099.30/expansion" xr:uid="{26D26148-E36C-49C7-9BC8-BEA80590DA97}"/>
+    <hyperlink ref="D1" r:id="rId1" location="table" tooltip="Minimum and Maximum # of times the the element can appear in the instance" display="http://hl7.org/fhir/R4/formats.html - table" xr:uid="{ED71BEE4-4E2B-452D-9EFA-11A7606464B6}"/>
+    <hyperlink ref="E1" r:id="rId2" location="table" tooltip="Reference to the type of the element" display="http://hl7.org/fhir/R4/formats.html - table" xr:uid="{C1E955F5-0878-4427-8646-8DD3532A98E4}"/>
+    <hyperlink ref="E2" r:id="rId3" location="code" display="code" xr:uid="{976C1031-679C-45E1-86C7-0B478614D2FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017F28FC-CA05-4138-8851-5AFBE7C0275A}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="2" width="21.5234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.89453125" customWidth="1"/>
+    <col min="8" max="8" width="8.734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="77" t="s">
+        <v>274</v>
+      </c>
+      <c r="J1" s="77" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="82" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="82" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="82" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" s="80" t="s">
+        <v>303</v>
+      </c>
+      <c r="G2" s="82" t="s">
+        <v>304</v>
+      </c>
+      <c r="H2" s="84" t="s">
+        <v>305</v>
+      </c>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="78" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="80" t="s">
+        <v>277</v>
+      </c>
+      <c r="G3" s="63" t="s">
+        <v>278</v>
+      </c>
+      <c r="H3" s="81"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="82" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4" s="79" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" s="80" t="s">
+        <v>307</v>
+      </c>
+      <c r="G4" s="81" t="s">
+        <v>308</v>
+      </c>
+      <c r="H4" s="81"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="82" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="82" t="s">
+        <v>309</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F5" s="80" t="s">
+        <v>310</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>311</v>
+      </c>
+      <c r="H5" s="63"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="82" t="s">
+        <v>312</v>
+      </c>
+      <c r="B6" s="82" t="s">
+        <v>312</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F6" s="80" t="s">
+        <v>310</v>
+      </c>
+      <c r="G6" s="63" t="s">
+        <v>311</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="82" t="s">
+        <v>313</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>313</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="80" t="s">
+        <v>310</v>
+      </c>
+      <c r="G7" s="63" t="s">
+        <v>311</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="82" t="s">
+        <v>314</v>
+      </c>
+      <c r="B8" s="82" t="s">
+        <v>314</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F8" s="80" t="s">
+        <v>310</v>
+      </c>
+      <c r="G8" s="63" t="s">
+        <v>311</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="82" t="s">
+        <v>315</v>
+      </c>
+      <c r="B9" s="82" t="s">
+        <v>315</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F9" s="80" t="s">
+        <v>310</v>
+      </c>
+      <c r="G9" s="63" t="s">
+        <v>311</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" location="code" display="code" xr:uid="{C86F57F5-F8C1-4AAA-AFFC-08198CEFDBB5}"/>
+    <hyperlink ref="D1" r:id="rId2" location="table" tooltip="Minimum and Maximum # of times the the element can appear in the instance" display="http://hl7.org/fhir/R4/formats.html - table" xr:uid="{2C568A36-85DC-4C02-8385-F55BE71A22EB}"/>
+    <hyperlink ref="E1" r:id="rId3" location="table" tooltip="Reference to the type of the element" display="http://hl7.org/fhir/R4/formats.html - table" xr:uid="{E1FB292D-6841-43F0-8D56-1A1AFBF1BFD0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACCF67C-1A08-4EEF-865B-DC2DF7A4ECEE}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
@@ -4693,355 +5359,355 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="27.41796875" style="52" customWidth="1"/>
-    <col min="2" max="2" width="29.26171875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="27.41796875" style="52" customWidth="1"/>
-    <col min="4" max="4" width="9.15625" style="52"/>
-    <col min="5" max="5" width="15" style="52" customWidth="1"/>
-    <col min="6" max="6" width="61" style="52" customWidth="1"/>
-    <col min="7" max="7" width="27" style="56" customWidth="1"/>
-    <col min="8" max="8" width="45.68359375" style="52" customWidth="1"/>
-    <col min="9" max="10" width="0" style="52" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="31" style="28" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="24.41796875" style="52" customWidth="1"/>
-    <col min="14" max="16384" width="9.15625" style="52"/>
+    <col min="1" max="1" width="27.41796875" style="50" customWidth="1"/>
+    <col min="2" max="2" width="29.26171875" style="50" customWidth="1"/>
+    <col min="3" max="3" width="27.41796875" style="50" customWidth="1"/>
+    <col min="4" max="4" width="9.15625" style="50"/>
+    <col min="5" max="5" width="15" style="50" customWidth="1"/>
+    <col min="6" max="6" width="61" style="50" customWidth="1"/>
+    <col min="7" max="7" width="27" style="54" customWidth="1"/>
+    <col min="8" max="8" width="45.68359375" style="50" customWidth="1"/>
+    <col min="9" max="10" width="0" style="50" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="31" style="27" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="24.41796875" style="50" customWidth="1"/>
+    <col min="14" max="16384" width="9.15625" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="M1" s="51" t="s">
-        <v>241</v>
+      <c r="M1" s="49" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="114.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="53" t="str">
+      <c r="F2" s="51" t="str">
         <f t="shared" ref="F2:F6" si="0">VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,3,FALSE)</f>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G2" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="H2" s="53" t="s">
+      <c r="G2" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="65" t="s">
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="70" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="53" t="str">
+      <c r="F3" s="51" t="str">
         <f t="shared" si="0"/>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G3" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="H3" s="53" t="s">
+      <c r="G3" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="H3" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="66"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="71"/>
     </row>
     <row r="4" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="53" t="str">
+      <c r="F4" s="51" t="str">
         <f t="shared" si="0"/>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G4" s="55">
+      <c r="G4" s="53">
         <v>20000</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53" t="s">
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="L4" s="53"/>
-      <c r="M4" s="67"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="72"/>
     </row>
     <row r="5" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="53" t="str">
+      <c r="F5" s="51" t="str">
         <f t="shared" si="0"/>
         <v>A date, or partial date (e.g. just year or year + month) as used in human communication. The format is YYYY, YYYY-MM, or YYYY-MM-DD, e.g. 2018, 1973-06, or 1905-08-23. There SHALL be no time zone. Dates SHALL be valid dates  Regex: ([0-9]([0-9]([0-9][1-9]|[1-9]0)|[1-9]00)|[1-9]000)(-(0[1-9]|1[0-2])(-(0[1-9]|[1-2][0-9]|3[0-1]))?)?</v>
       </c>
-      <c r="G5" s="59">
+      <c r="G5" s="57">
         <v>45303</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
     </row>
     <row r="6" spans="1:13" ht="107.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="53" t="str">
+      <c r="F6" s="51" t="str">
         <f t="shared" si="0"/>
         <v>A date, or partial date (e.g. just year or year + month) as used in human communication. The format is YYYY, YYYY-MM, or YYYY-MM-DD, e.g. 2018, 1973-06, or 1905-08-23. There SHALL be no time zone. Dates SHALL be valid dates  Regex: ([0-9]([0-9]([0-9][1-9]|[1-9]0)|[1-9]00)|[1-9]000)(-(0[1-9]|1[0-2])(-(0[1-9]|[1-2][0-9]|3[0-1]))?)?</v>
       </c>
-      <c r="G6" s="59">
+      <c r="G6" s="57">
         <v>45527</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
     </row>
     <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="53" t="str">
+      <c r="F7" s="51" t="str">
         <f>VLOOKUP(IF(LOWER(LEFT(E7,9))="reference",LEFT(E7,9),E7),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E7,9))="reference",LEFT(E7,9),E7),Primitive_datatypes,3,FALSE)</f>
         <v>A signed integer in the range −2,147,483,648..2,147,483,647 (32-bit; for larger values, use decimal)  Regex: [0]|[-+]?[1-9][0-9]*</v>
       </c>
-      <c r="G7" s="55">
+      <c r="G7" s="53">
         <v>5</v>
       </c>
-      <c r="H7" s="53" t="s">
+      <c r="H7" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
     </row>
     <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="53" t="str">
+      <c r="F8" s="51" t="str">
         <f>VLOOKUP(IF(LOWER(LEFT(E8,9))="reference",LEFT(E8,9),E8),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E8,9))="reference",LEFT(E8,9),E8),Primitive_datatypes,3,FALSE)</f>
         <v>A signed integer in the range −2,147,483,648..2,147,483,647 (32-bit; for larger values, use decimal)  Regex: [0]|[-+]?[1-9][0-9]*</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8" s="53">
         <v>5</v>
       </c>
-      <c r="H8" s="53" t="s">
+      <c r="H8" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
     </row>
     <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="53" t="str">
+      <c r="F9" s="51" t="str">
         <f>VLOOKUP(IF(LOWER(LEFT(E9,9))="reference",LEFT(E9,9),E9),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E9,9))="reference",LEFT(E9,9),E9),Primitive_datatypes,3,FALSE)</f>
         <v>Rational numbers that have a decimal representation. See below about the precision of the number  Regex: -?(0|[1-9][0-9]*)(\.[0-9]+)?([eE][+-]?[0-9]+)?</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9" s="53">
         <v>153.69999999999999</v>
       </c>
-      <c r="H9" s="53" t="s">
+      <c r="H9" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
     </row>
     <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="53" t="str">
+      <c r="F10" s="51" t="str">
         <f>VLOOKUP(IF(LOWER(LEFT(E10,9))="reference",LEFT(E10,9),E10),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E10,9))="reference",LEFT(E10,9),E10),Primitive_datatypes,3,FALSE)</f>
         <v>Rational numbers that have a decimal representation. See below about the precision of the number  Regex: -?(0|[1-9][0-9]*)(\.[0-9]+)?([eE][+-]?[0-9]+)?</v>
       </c>
-      <c r="G10" s="55">
+      <c r="G10" s="53">
         <v>768.5</v>
       </c>
-      <c r="H10" s="53" t="s">
+      <c r="H10" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5056,7 +5722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA83930D-C2BD-4938-9AEC-8B55EBB00909}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
@@ -5069,356 +5735,356 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="27.41796875" style="52" customWidth="1"/>
-    <col min="2" max="2" width="29.26171875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="27.41796875" style="52" customWidth="1"/>
-    <col min="4" max="4" width="9.15625" style="58"/>
-    <col min="5" max="5" width="15" style="52" customWidth="1"/>
-    <col min="6" max="6" width="61" style="52" customWidth="1"/>
-    <col min="7" max="7" width="27" style="56" customWidth="1"/>
-    <col min="8" max="8" width="45.68359375" style="52" customWidth="1"/>
-    <col min="9" max="10" width="0" style="52" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="31" style="28" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="24.41796875" style="52" customWidth="1"/>
-    <col min="14" max="16384" width="9.15625" style="52"/>
+    <col min="1" max="1" width="27.41796875" style="50" customWidth="1"/>
+    <col min="2" max="2" width="29.26171875" style="50" customWidth="1"/>
+    <col min="3" max="3" width="27.41796875" style="50" customWidth="1"/>
+    <col min="4" max="4" width="9.15625" style="56"/>
+    <col min="5" max="5" width="15" style="50" customWidth="1"/>
+    <col min="6" max="6" width="61" style="50" customWidth="1"/>
+    <col min="7" max="7" width="27" style="54" customWidth="1"/>
+    <col min="8" max="8" width="45.68359375" style="50" customWidth="1"/>
+    <col min="9" max="10" width="0" style="50" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="31" style="27" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="24.41796875" style="50" customWidth="1"/>
+    <col min="14" max="16384" width="9.15625" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="M1" s="51" t="s">
-        <v>241</v>
+      <c r="M1" s="49" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>244</v>
-      </c>
-      <c r="C2" s="52" t="s">
+      <c r="A2" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="58">
+      <c r="D2" s="56">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="53" t="str">
+      <c r="F2" s="51" t="str">
         <f>VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,3,FALSE)</f>
         <v>A signed integer in the range −2,147,483,648..2,147,483,647 (32-bit; for larger values, use decimal)  Regex: [0]|[-+]?[1-9][0-9]*</v>
       </c>
-      <c r="G2" s="55">
+      <c r="G2" s="53">
         <v>3000</v>
       </c>
-      <c r="H2" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53" t="s">
+      <c r="H2" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="M2" s="53"/>
+      <c r="M2" s="51"/>
     </row>
     <row r="3" spans="1:13" ht="114.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="53" t="str">
+      <c r="F3" s="51" t="str">
         <f t="shared" ref="F3:F8" si="0">VLOOKUP(IF(LOWER(LEFT(E3,9))="reference",LEFT(E3,9),E3),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E3,9))="reference",LEFT(E3,9),E3),Primitive_datatypes,3,FALSE)</f>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G3" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="H3" s="53" t="s">
+      <c r="G3" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="H3" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="53" t="str">
+      <c r="F4" s="51" t="str">
         <f t="shared" si="0"/>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G4" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="H4" s="53" t="s">
+      <c r="G4" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="H4" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
     </row>
     <row r="5" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="53" t="str">
+      <c r="F5" s="51" t="str">
         <f t="shared" si="0"/>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="53">
         <v>20000</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53" t="s">
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
     </row>
     <row r="6" spans="1:13" ht="107.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="53" t="str">
+      <c r="F6" s="51" t="str">
         <f t="shared" si="0"/>
         <v>A date, or partial date (e.g. just year or year + month) as used in human communication. The format is YYYY, YYYY-MM, or YYYY-MM-DD, e.g. 2018, 1973-06, or 1905-08-23. There SHALL be no time zone. Dates SHALL be valid dates  Regex: ([0-9]([0-9]([0-9][1-9]|[1-9]0)|[1-9]00)|[1-9]000)(-(0[1-9]|1[0-2])(-(0[1-9]|[1-2][0-9]|3[0-1]))?)?</v>
       </c>
-      <c r="G6" s="59">
+      <c r="G6" s="57">
         <v>45527</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
     </row>
     <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="52" t="s">
-        <v>246</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>247</v>
-      </c>
-      <c r="C7" s="52" t="s">
+      <c r="A7" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="53" t="str">
+      <c r="F7" s="51" t="str">
         <f>VLOOKUP(IF(LOWER(LEFT(E7,9))="reference",LEFT(E7,9),E7),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E7,9))="reference",LEFT(E7,9),E7),Primitive_datatypes,3,FALSE)</f>
         <v>A signed integer in the range −2,147,483,648..2,147,483,647 (32-bit; for larger values, use decimal)  Regex: [0]|[-+]?[1-9][0-9]*</v>
       </c>
-      <c r="G7" s="55">
+      <c r="G7" s="53">
         <v>5</v>
       </c>
-      <c r="H7" s="53" t="s">
+      <c r="H7" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
     </row>
     <row r="8" spans="1:13" ht="144" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="52" t="s">
-        <v>248</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>249</v>
-      </c>
-      <c r="C8" s="52" t="s">
+      <c r="A8" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="53" t="str">
+      <c r="F8" s="51" t="str">
         <f t="shared" si="0"/>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G8" s="55" t="s">
-        <v>251</v>
-      </c>
-      <c r="H8" s="53" t="s">
+      <c r="G8" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="H8" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
     </row>
     <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="53" t="str">
+      <c r="F9" s="51" t="str">
         <f>VLOOKUP(IF(LOWER(LEFT(E9,9))="reference",LEFT(E9,9),E9),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E9,9))="reference",LEFT(E9,9),E9),Primitive_datatypes,3,FALSE)</f>
         <v>Rational numbers that have a decimal representation. See below about the precision of the number  Regex: -?(0|[1-9][0-9]*)(\.[0-9]+)?([eE][+-]?[0-9]+)?</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9" s="53">
         <v>153.69999999999999</v>
       </c>
-      <c r="H9" s="53" t="s">
+      <c r="H9" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
     </row>
     <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="53" t="str">
+      <c r="F10" s="51" t="str">
         <f>VLOOKUP(IF(LOWER(LEFT(E10,9))="reference",LEFT(E10,9),E10),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E10,9))="reference",LEFT(E10,9),E10),Primitive_datatypes,3,FALSE)</f>
         <v>Rational numbers that have a decimal representation. See below about the precision of the number  Regex: -?(0|[1-9][0-9]*)(\.[0-9]+)?([eE][+-]?[0-9]+)?</v>
       </c>
-      <c r="G10" s="55">
+      <c r="G10" s="53">
         <v>768.5</v>
       </c>
-      <c r="H10" s="53" t="s">
+      <c r="H10" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5429,7 +6095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984CC974-A668-43D1-8F16-75E0AC84647E}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
@@ -5442,454 +6108,454 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="27.41796875" style="52" customWidth="1"/>
-    <col min="2" max="2" width="29.26171875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="27.41796875" style="52" customWidth="1"/>
-    <col min="4" max="4" width="9.15625" style="52"/>
-    <col min="5" max="5" width="15" style="52" customWidth="1"/>
-    <col min="6" max="6" width="61" style="52" customWidth="1"/>
-    <col min="7" max="7" width="27" style="56" customWidth="1"/>
-    <col min="8" max="8" width="45.68359375" style="52" customWidth="1"/>
-    <col min="9" max="10" width="0" style="52" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="31" style="28" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="24.41796875" style="52" customWidth="1"/>
-    <col min="14" max="16384" width="9.15625" style="52"/>
+    <col min="1" max="1" width="27.41796875" style="50" customWidth="1"/>
+    <col min="2" max="2" width="29.26171875" style="50" customWidth="1"/>
+    <col min="3" max="3" width="27.41796875" style="50" customWidth="1"/>
+    <col min="4" max="4" width="9.15625" style="50"/>
+    <col min="5" max="5" width="15" style="50" customWidth="1"/>
+    <col min="6" max="6" width="61" style="50" customWidth="1"/>
+    <col min="7" max="7" width="27" style="54" customWidth="1"/>
+    <col min="8" max="8" width="45.68359375" style="50" customWidth="1"/>
+    <col min="9" max="10" width="0" style="50" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="31" style="27" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="24.41796875" style="50" customWidth="1"/>
+    <col min="14" max="16384" width="9.15625" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="J1" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="L1" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="M1" s="68" t="s">
+      <c r="M1" s="58" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="60" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="60" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="70" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" s="70" t="s">
-        <v>253</v>
-      </c>
-      <c r="C2" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="70" t="s">
-        <v>254</v>
-      </c>
-      <c r="F2" s="71" t="str">
+      <c r="F2" s="61" t="str">
         <f>VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,3,FALSE)</f>
         <v>A signed integer in the range −2,147,483,648..2,147,483,647 (32-bit; for larger values, use decimal)  Regex: [0]|[-+]?[1-9][0-9]*</v>
       </c>
-      <c r="G2" s="72">
+      <c r="G2" s="62">
         <v>123</v>
       </c>
-      <c r="H2" s="70" t="s">
-        <v>252</v>
-      </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71" t="s">
+      <c r="H2" s="60" t="s">
+        <v>239</v>
+      </c>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="M2" s="71"/>
+      <c r="M2" s="61"/>
     </row>
     <row r="3" spans="1:13" ht="114.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="60" t="s">
         <v>208</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="71" t="str">
+      <c r="F3" s="61" t="str">
         <f t="shared" ref="F3:F7" si="0">VLOOKUP(IF(LOWER(LEFT(E3,9))="reference",LEFT(E3,9),E3),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E3,9))="reference",LEFT(E3,9),E3),Primitive_datatypes,3,FALSE)</f>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G3" s="72" t="s">
-        <v>242</v>
-      </c>
-      <c r="H3" s="70" t="s">
+      <c r="G3" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="H3" s="60" t="s">
         <v>208</v>
       </c>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="73"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="63"/>
     </row>
     <row r="4" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="60" t="s">
         <v>209</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="71" t="str">
+      <c r="F4" s="61" t="str">
         <f t="shared" si="0"/>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G4" s="72" t="s">
-        <v>250</v>
-      </c>
-      <c r="H4" s="70" t="s">
+      <c r="G4" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="H4" s="60" t="s">
         <v>209</v>
       </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="73"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="63"/>
     </row>
     <row r="5" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="71" t="str">
+      <c r="F5" s="61" t="str">
         <f t="shared" si="0"/>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G5" s="72">
+      <c r="G5" s="62">
         <v>20000</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71" t="s">
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="L5" s="71"/>
-      <c r="M5" s="73"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="63"/>
     </row>
     <row r="6" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="70" t="s">
-        <v>255</v>
-      </c>
-      <c r="B6" s="70" t="s">
-        <v>256</v>
-      </c>
-      <c r="C6" s="70" t="s">
+      <c r="A6" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="71" t="str">
+      <c r="F6" s="61" t="str">
         <f t="shared" si="0"/>
         <v>A date, or partial date (e.g. just year or year + month) as used in human communication. The format is YYYY, YYYY-MM, or YYYY-MM-DD, e.g. 2018, 1973-06, or 1905-08-23. There SHALL be no time zone. Dates SHALL be valid dates  Regex: ([0-9]([0-9]([0-9][1-9]|[1-9]0)|[1-9]00)|[1-9]000)(-(0[1-9]|1[0-2])(-(0[1-9]|[1-2][0-9]|3[0-1]))?)?</v>
       </c>
-      <c r="G6" s="74">
+      <c r="G6" s="64">
         <v>45303</v>
       </c>
-      <c r="H6" s="70" t="s">
-        <v>255</v>
-      </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
+      <c r="H6" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
     </row>
     <row r="7" spans="1:13" ht="144" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="B7" s="70" t="s">
-        <v>258</v>
-      </c>
-      <c r="C7" s="70" t="s">
+      <c r="A7" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="70" t="s">
+      <c r="E7" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="71" t="str">
+      <c r="F7" s="61" t="str">
         <f t="shared" si="0"/>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G7" s="72">
+      <c r="G7" s="62">
         <v>123</v>
       </c>
-      <c r="H7" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
+      <c r="H7" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
     </row>
     <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="70" t="s">
-        <v>259</v>
-      </c>
-      <c r="B8" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="C8" s="70" t="s">
+      <c r="A8" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="70" t="s">
-        <v>254</v>
-      </c>
-      <c r="F8" s="71" t="str">
+      <c r="E8" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="F8" s="61" t="str">
         <f>VLOOKUP(IF(LOWER(LEFT(E8,9))="reference",LEFT(E8,9),E8),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E8,9))="reference",LEFT(E8,9),E8),Primitive_datatypes,3,FALSE)</f>
         <v>A signed integer in the range −2,147,483,648..2,147,483,647 (32-bit; for larger values, use decimal)  Regex: [0]|[-+]?[1-9][0-9]*</v>
       </c>
-      <c r="G8" s="72">
+      <c r="G8" s="62">
         <v>123</v>
       </c>
-      <c r="H8" s="70" t="s">
-        <v>259</v>
-      </c>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
+      <c r="H8" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
     </row>
     <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="70" t="s">
-        <v>261</v>
-      </c>
-      <c r="B9" s="70" t="s">
-        <v>263</v>
-      </c>
-      <c r="C9" s="70" t="s">
+      <c r="A9" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="E9" s="70" t="s">
-        <v>254</v>
-      </c>
-      <c r="F9" s="71" t="str">
+      <c r="E9" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="F9" s="61" t="str">
         <f>VLOOKUP(IF(LOWER(LEFT(E9,9))="reference",LEFT(E9,9),E9),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E9,9))="reference",LEFT(E9,9),E9),Primitive_datatypes,3,FALSE)</f>
         <v>A signed integer in the range −2,147,483,648..2,147,483,647 (32-bit; for larger values, use decimal)  Regex: [0]|[-+]?[1-9][0-9]*</v>
       </c>
-      <c r="G9" s="72">
+      <c r="G9" s="62">
         <v>123</v>
       </c>
-      <c r="H9" s="70" t="s">
-        <v>261</v>
-      </c>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
+      <c r="H9" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
     </row>
     <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="70" t="s">
-        <v>262</v>
-      </c>
-      <c r="B10" s="70" t="s">
-        <v>264</v>
-      </c>
-      <c r="C10" s="70" t="s">
+      <c r="A10" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="70" t="s">
+      <c r="D10" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="E10" s="70" t="s">
-        <v>254</v>
-      </c>
-      <c r="F10" s="71" t="str">
+      <c r="E10" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="F10" s="61" t="str">
         <f>VLOOKUP(IF(LOWER(LEFT(E10,9))="reference",LEFT(E10,9),E10),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E10,9))="reference",LEFT(E10,9),E10),Primitive_datatypes,3,FALSE)</f>
         <v>A signed integer in the range −2,147,483,648..2,147,483,647 (32-bit; for larger values, use decimal)  Regex: [0]|[-+]?[1-9][0-9]*</v>
       </c>
-      <c r="G10" s="72">
+      <c r="G10" s="62">
         <v>123</v>
       </c>
-      <c r="H10" s="70" t="s">
-        <v>262</v>
-      </c>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
+      <c r="H10" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
     </row>
     <row r="11" spans="1:13" ht="144" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="70" t="s">
-        <v>265</v>
-      </c>
-      <c r="B11" s="70" t="s">
-        <v>266</v>
-      </c>
-      <c r="C11" s="70" t="s">
+      <c r="A11" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="71" t="str">
+      <c r="F11" s="61" t="str">
         <f t="shared" ref="F11:F13" si="1">VLOOKUP(IF(LOWER(LEFT(E11,9))="reference",LEFT(E11,9),E11),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E11,9))="reference",LEFT(E11,9),E11),Primitive_datatypes,3,FALSE)</f>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G11" s="72">
+      <c r="G11" s="62">
         <v>123</v>
       </c>
-      <c r="H11" s="70" t="s">
-        <v>265</v>
-      </c>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
+      <c r="H11" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
     </row>
     <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="70" t="s">
-        <v>267</v>
-      </c>
-      <c r="B12" s="70" t="s">
-        <v>268</v>
-      </c>
-      <c r="C12" s="70" t="s">
+      <c r="A12" s="60" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="E12" s="70" t="s">
-        <v>254</v>
-      </c>
-      <c r="F12" s="71" t="str">
+      <c r="E12" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="F12" s="61" t="str">
         <f>VLOOKUP(IF(LOWER(LEFT(E12,9))="reference",LEFT(E12,9),E12),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E12,9))="reference",LEFT(E12,9),E12),Primitive_datatypes,3,FALSE)</f>
         <v>A signed integer in the range −2,147,483,648..2,147,483,647 (32-bit; for larger values, use decimal)  Regex: [0]|[-+]?[1-9][0-9]*</v>
       </c>
-      <c r="G12" s="72">
+      <c r="G12" s="62">
         <v>123</v>
       </c>
-      <c r="H12" s="70" t="s">
-        <v>267</v>
-      </c>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
+      <c r="H12" s="60" t="s">
+        <v>254</v>
+      </c>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
     </row>
     <row r="13" spans="1:13" ht="144" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="70" t="s">
-        <v>269</v>
-      </c>
-      <c r="B13" s="70" t="s">
-        <v>269</v>
-      </c>
-      <c r="C13" s="70" t="s">
+      <c r="A13" s="60" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>256</v>
+      </c>
+      <c r="C13" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="70" t="s">
+      <c r="D13" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="E13" s="70" t="s">
+      <c r="E13" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="71" t="str">
+      <c r="F13" s="61" t="str">
         <f t="shared" si="1"/>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G13" s="72">
+      <c r="G13" s="62">
         <v>768.5</v>
       </c>
-      <c r="H13" s="70" t="s">
-        <v>269</v>
-      </c>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
+      <c r="H13" s="60" t="s">
+        <v>256</v>
+      </c>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5900,7 +6566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D0B59-EE27-46C9-9DE5-50895888BE07}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
@@ -5913,321 +6579,321 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="27.41796875" style="52" customWidth="1"/>
-    <col min="2" max="2" width="29.26171875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="27.41796875" style="52" customWidth="1"/>
-    <col min="4" max="4" width="9.15625" style="52"/>
-    <col min="5" max="5" width="15" style="52" customWidth="1"/>
-    <col min="6" max="6" width="61" style="52" customWidth="1"/>
-    <col min="7" max="7" width="27" style="56" customWidth="1"/>
-    <col min="8" max="8" width="27.41796875" style="52" customWidth="1"/>
-    <col min="9" max="10" width="0" style="52" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="31" style="28" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="24.41796875" style="52" customWidth="1"/>
-    <col min="14" max="16384" width="9.15625" style="52"/>
+    <col min="1" max="1" width="27.41796875" style="50" customWidth="1"/>
+    <col min="2" max="2" width="29.26171875" style="50" customWidth="1"/>
+    <col min="3" max="3" width="27.41796875" style="50" customWidth="1"/>
+    <col min="4" max="4" width="9.15625" style="50"/>
+    <col min="5" max="5" width="15" style="50" customWidth="1"/>
+    <col min="6" max="6" width="61" style="50" customWidth="1"/>
+    <col min="7" max="7" width="27" style="54" customWidth="1"/>
+    <col min="8" max="8" width="27.41796875" style="50" customWidth="1"/>
+    <col min="9" max="10" width="0" style="50" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="31" style="27" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="24.41796875" style="50" customWidth="1"/>
+    <col min="14" max="16384" width="9.15625" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="J1" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="L1" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="M1" s="68" t="s">
-        <v>241</v>
+      <c r="M1" s="58" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="114.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="60" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="71" t="str">
+      <c r="F2" s="61" t="str">
         <f t="shared" ref="F2:F5" si="0">VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,3,FALSE)</f>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G2" s="72" t="s">
-        <v>242</v>
-      </c>
-      <c r="H2" s="70" t="s">
+      <c r="G2" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2" s="60" t="s">
         <v>208</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="73"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="63"/>
     </row>
     <row r="3" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="60" t="s">
         <v>209</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="71" t="str">
+      <c r="F3" s="61" t="str">
         <f t="shared" si="0"/>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G3" s="72" t="s">
-        <v>250</v>
-      </c>
-      <c r="H3" s="70" t="s">
+      <c r="G3" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="H3" s="60" t="s">
         <v>209</v>
       </c>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="73"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="63"/>
     </row>
     <row r="4" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="71" t="str">
+      <c r="F4" s="61" t="str">
         <f t="shared" si="0"/>
         <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
 This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
       </c>
-      <c r="G4" s="72">
+      <c r="G4" s="62">
         <v>20000</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71" t="s">
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="73"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="63"/>
     </row>
     <row r="5" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="71" t="str">
+      <c r="F5" s="61" t="str">
         <f t="shared" si="0"/>
         <v>A date, or partial date (e.g. just year or year + month) as used in human communication. The format is YYYY, YYYY-MM, or YYYY-MM-DD, e.g. 2018, 1973-06, or 1905-08-23. There SHALL be no time zone. Dates SHALL be valid dates  Regex: ([0-9]([0-9]([0-9][1-9]|[1-9]0)|[1-9]00)|[1-9]000)(-(0[1-9]|1[0-2])(-(0[1-9]|[1-2][0-9]|3[0-1]))?)?</v>
       </c>
-      <c r="G5" s="74">
+      <c r="G5" s="64">
         <v>45303</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
     </row>
     <row r="6" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="70" t="s">
-        <v>270</v>
-      </c>
-      <c r="B6" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="C6" s="70" t="s">
+      <c r="A6" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="71" t="str">
+      <c r="F6" s="61" t="str">
         <f t="shared" ref="F6" si="1">VLOOKUP(IF(LOWER(LEFT(E6,9))="reference",LEFT(E6,9),E6),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E6,9))="reference",LEFT(E6,9),E6),Primitive_datatypes,3,FALSE)</f>
         <v>A date, or partial date (e.g. just year or year + month) as used in human communication. The format is YYYY, YYYY-MM, or YYYY-MM-DD, e.g. 2018, 1973-06, or 1905-08-23. There SHALL be no time zone. Dates SHALL be valid dates  Regex: ([0-9]([0-9]([0-9][1-9]|[1-9]0)|[1-9]00)|[1-9]000)(-(0[1-9]|1[0-2])(-(0[1-9]|[1-2][0-9]|3[0-1]))?)?</v>
       </c>
-      <c r="G6" s="74">
+      <c r="G6" s="64">
         <v>45303</v>
       </c>
-      <c r="H6" s="70" t="s">
-        <v>270</v>
-      </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
+      <c r="H6" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
     </row>
     <row r="7" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="70" t="s">
-        <v>272</v>
-      </c>
-      <c r="B7" s="70" t="s">
-        <v>273</v>
-      </c>
-      <c r="C7" s="70" t="s">
+      <c r="A7" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="70" t="s">
+      <c r="E7" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="71" t="str">
+      <c r="F7" s="61" t="str">
         <f t="shared" ref="F7" si="2">VLOOKUP(IF(LOWER(LEFT(E7,9))="reference",LEFT(E7,9),E7),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E7,9))="reference",LEFT(E7,9),E7),Primitive_datatypes,3,FALSE)</f>
         <v>A date, or partial date (e.g. just year or year + month) as used in human communication. The format is YYYY, YYYY-MM, or YYYY-MM-DD, e.g. 2018, 1973-06, or 1905-08-23. There SHALL be no time zone. Dates SHALL be valid dates  Regex: ([0-9]([0-9]([0-9][1-9]|[1-9]0)|[1-9]00)|[1-9]000)(-(0[1-9]|1[0-2])(-(0[1-9]|[1-2][0-9]|3[0-1]))?)?</v>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="64">
         <v>45303</v>
       </c>
-      <c r="H7" s="70" t="s">
-        <v>272</v>
-      </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
+      <c r="H7" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
     </row>
     <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="70" t="s">
-        <v>274</v>
-      </c>
-      <c r="B8" s="70" t="s">
-        <v>275</v>
-      </c>
-      <c r="C8" s="70" t="s">
+      <c r="A8" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="70" t="s">
-        <v>254</v>
-      </c>
-      <c r="F8" s="71" t="str">
+      <c r="E8" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="F8" s="61" t="str">
         <f>VLOOKUP(IF(LOWER(LEFT(E8,9))="reference",LEFT(E8,9),E8),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E8,9))="reference",LEFT(E8,9),E8),Primitive_datatypes,3,FALSE)</f>
         <v>A signed integer in the range −2,147,483,648..2,147,483,647 (32-bit; for larger values, use decimal)  Regex: [0]|[-+]?[1-9][0-9]*</v>
       </c>
-      <c r="G8" s="72">
+      <c r="G8" s="62">
         <v>123</v>
       </c>
-      <c r="H8" s="70" t="s">
-        <v>274</v>
-      </c>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
+      <c r="H8" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
     </row>
     <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="70" t="s">
-        <v>276</v>
-      </c>
-      <c r="B9" s="70" t="s">
-        <v>277</v>
-      </c>
-      <c r="C9" s="70" t="s">
+      <c r="A9" s="60" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>264</v>
+      </c>
+      <c r="C9" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="E9" s="70" t="s">
-        <v>254</v>
-      </c>
-      <c r="F9" s="71" t="str">
+      <c r="E9" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="F9" s="61" t="str">
         <f>VLOOKUP(IF(LOWER(LEFT(E9,9))="reference",LEFT(E9,9),E9),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E9,9))="reference",LEFT(E9,9),E9),Primitive_datatypes,3,FALSE)</f>
         <v>A signed integer in the range −2,147,483,648..2,147,483,647 (32-bit; for larger values, use decimal)  Regex: [0]|[-+]?[1-9][0-9]*</v>
       </c>
-      <c r="G9" s="72">
+      <c r="G9" s="62">
         <v>123</v>
       </c>
-      <c r="H9" s="70" t="s">
-        <v>276</v>
-      </c>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
+      <c r="H9" s="60" t="s">
+        <v>263</v>
+      </c>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6235,316 +6901,6 @@
     <hyperlink ref="K4" r:id="rId2" xr:uid="{58B658E8-4971-4A60-9670-66F56D8B9140}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A269AB-C39E-4C96-888D-28612AFDFA96}">
-  <sheetPr>
-    <tabColor theme="4" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:M8"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="27.41796875" style="52" customWidth="1"/>
-    <col min="2" max="2" width="29.26171875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="27.41796875" style="52" customWidth="1"/>
-    <col min="4" max="4" width="9.15625" style="52"/>
-    <col min="5" max="5" width="15" style="52" customWidth="1"/>
-    <col min="6" max="6" width="61" style="52" customWidth="1"/>
-    <col min="7" max="7" width="27" style="56" customWidth="1"/>
-    <col min="8" max="8" width="45.68359375" style="52" customWidth="1"/>
-    <col min="9" max="10" width="0" style="52" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="31" style="28" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="24.41796875" style="52" customWidth="1"/>
-    <col min="14" max="16384" width="9.15625" style="52"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="68" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="69" t="s">
-        <v>145</v>
-      </c>
-      <c r="H1" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="68" t="s">
-        <v>146</v>
-      </c>
-      <c r="J1" s="68" t="s">
-        <v>147</v>
-      </c>
-      <c r="K1" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="68" t="s">
-        <v>148</v>
-      </c>
-      <c r="M1" s="68" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="114.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="70" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="70" t="s">
-        <v>224</v>
-      </c>
-      <c r="C2" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="71" t="str">
-        <f t="shared" ref="F2:F7" si="0">VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E2,9))="reference",LEFT(E2,9),E2),Primitive_datatypes,3,FALSE)</f>
-        <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
-This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
-      </c>
-      <c r="G2" s="72" t="s">
-        <v>242</v>
-      </c>
-      <c r="H2" s="70" t="s">
-        <v>208</v>
-      </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="73"/>
-    </row>
-    <row r="3" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="70" t="s">
-        <v>209</v>
-      </c>
-      <c r="B3" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="C3" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="F3" s="71" t="str">
-        <f t="shared" si="0"/>
-        <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
-This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
-      </c>
-      <c r="G3" s="72" t="s">
-        <v>250</v>
-      </c>
-      <c r="H3" s="70" t="s">
-        <v>209</v>
-      </c>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="73"/>
-    </row>
-    <row r="4" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="70" t="s">
-        <v>278</v>
-      </c>
-      <c r="B4" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="C4" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="71" t="str">
-        <f t="shared" si="0"/>
-        <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
-This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
-      </c>
-      <c r="G4" s="72">
-        <v>20000</v>
-      </c>
-      <c r="H4" s="70" t="s">
-        <v>278</v>
-      </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="73"/>
-    </row>
-    <row r="5" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="70" t="s">
-        <v>279</v>
-      </c>
-      <c r="B5" s="70" t="s">
-        <v>283</v>
-      </c>
-      <c r="C5" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="E5" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="F5" s="71" t="str">
-        <f t="shared" si="0"/>
-        <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
-This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
-      </c>
-      <c r="G5" s="74">
-        <v>45303</v>
-      </c>
-      <c r="H5" s="70" t="s">
-        <v>279</v>
-      </c>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-    </row>
-    <row r="6" spans="1:13" ht="107.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="70" t="s">
-        <v>280</v>
-      </c>
-      <c r="B6" s="70" t="s">
-        <v>285</v>
-      </c>
-      <c r="C6" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="70" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="71" t="str">
-        <f t="shared" si="0"/>
-        <v>A date, or partial date (e.g. just year or year + month) as used in human communication. The format is YYYY, YYYY-MM, or YYYY-MM-DD, e.g. 2018, 1973-06, or 1905-08-23. There SHALL be no time zone. Dates SHALL be valid dates  Regex: ([0-9]([0-9]([0-9][1-9]|[1-9]0)|[1-9]00)|[1-9]000)(-(0[1-9]|1[0-2])(-(0[1-9]|[1-2][0-9]|3[0-1]))?)?</v>
-      </c>
-      <c r="G6" s="74">
-        <v>45527</v>
-      </c>
-      <c r="H6" s="70" t="s">
-        <v>280</v>
-      </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-    </row>
-    <row r="7" spans="1:13" ht="144" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="70" t="s">
-        <v>281</v>
-      </c>
-      <c r="B7" s="70" t="s">
-        <v>284</v>
-      </c>
-      <c r="C7" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="71" t="str">
-        <f t="shared" si="0"/>
-        <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
-This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
-      </c>
-      <c r="G7" s="72" t="s">
-        <v>286</v>
-      </c>
-      <c r="H7" s="70" t="s">
-        <v>281</v>
-      </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-    </row>
-    <row r="8" spans="1:13" ht="144" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="70" t="s">
-        <v>282</v>
-      </c>
-      <c r="B8" s="70" t="s">
-        <v>282</v>
-      </c>
-      <c r="C8" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="71" t="str">
-        <f t="shared" ref="F8" si="1">VLOOKUP(IF(LOWER(LEFT(E8,9))="reference",LEFT(E8,9),E8),Primitive_datatypes,2,)&amp;"  "&amp;VLOOKUP(IF(LOWER(LEFT(E8,9))="reference",LEFT(E8,9),E8),Primitive_datatypes,3,FALSE)</f>
-        <v>A sequence of Unicode characters. Note that strings SHALL NOT exceed 1MB (1024*1024 characters) in size. Strings SHOULD not contain Unicode character points below 32, except for u0009 (horizontal tab), u0010 (carriage return) and u0013 (line feed). Leading and Trailing whitespace is allowed, but SHOULD be removed when using the XML format. Note: This means that a string that consists only of whitespace could be trimmed to nothing, which would be treated as an invalid element value. Therefore strings SHOULD always contain non-whitespace content.
-This data type can be bound to a ValueSet.  Regex: [ \r\n\t\S]+ (see notes below)</v>
-      </c>
-      <c r="G8" s="72" t="s">
-        <v>286</v>
-      </c>
-      <c r="H8" s="70" t="s">
-        <v>282</v>
-      </c>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" location="table" tooltip="Minimum and Maximum # of times the the element can appear in the instance" display="http://hl7.org/fhir/R4/formats.html - table" xr:uid="{10DF68DA-08EC-4A9A-AED8-4A4A3DE84718}"/>
-    <hyperlink ref="K4" r:id="rId2" xr:uid="{37CAE49D-263D-40E6-97C8-920F27FC1C4C}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6558,25 +6914,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="eaabd3e7-0ce8-42bc-8d66-c3c3304c2dfc">
-      <UserInfo>
-        <DisplayName>Anu Shrestha</DisplayName>
-        <AccountId>10</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Mark Scrimshire</DisplayName>
-        <AccountId>15</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100503221AB708796409AD860ADE6AAD593" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c0ffc22559576c48cf28c990a0d7a275">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c4f2b4a-d872-4bc3-92aa-c9e0e0ce3abf" xmlns:ns3="eaabd3e7-0ce8-42bc-8d66-c3c3304c2dfc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9cbde4cd61471a7f78e266c6f4f58277" ns2:_="" ns3:_="">
     <xsd:import namespace="8c4f2b4a-d872-4bc3-92aa-c9e0e0ce3abf"/>
@@ -6787,6 +7124,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="eaabd3e7-0ce8-42bc-8d66-c3c3304c2dfc">
+      <UserInfo>
+        <DisplayName>Anu Shrestha</DisplayName>
+        <AccountId>10</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Mark Scrimshire</DisplayName>
+        <AccountId>15</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F3EF619-D41E-4705-9CA4-A271305D0F0D}">
   <ds:schemaRefs>
@@ -6796,16 +7152,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{209C933E-2063-4D4C-8812-09EB74513F28}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="eaabd3e7-0ce8-42bc-8d66-c3c3304c2dfc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D172CF95-4E7F-46C6-B917-F98C8BD1FD91}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6822,4 +7168,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{209C933E-2063-4D4C-8812-09EB74513F28}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="eaabd3e7-0ce8-42bc-8d66-c3c3304c2dfc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data-pipeline-app/documentation/docs/Capstone Supplier Performance Analysis Data Guide.xlsx
+++ b/data-pipeline-app/documentation/docs/Capstone Supplier Performance Analysis Data Guide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHAKTI_GOYAL\capstone-project\data-eng-capstone-project-teameinstein\data-pipeline-app\documentation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F14590-A955-4ACC-8319-FB18548EF4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA98F93A-4926-4E7D-8260-461B79531A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="893" firstSheet="1" activeTab="11" xr2:uid="{C47A438E-1665-47B3-8C39-BF484954AF81}"/>
   </bookViews>
@@ -16,11 +16,11 @@
     <sheet name="User Guide" sheetId="7" r:id="rId1"/>
     <sheet name="Version History" sheetId="8" r:id="rId2"/>
     <sheet name="Data Types" sheetId="14" r:id="rId3"/>
-    <sheet name="Supplier Data" sheetId="27" r:id="rId4"/>
-    <sheet name="Cost Data" sheetId="26" r:id="rId5"/>
-    <sheet name="PurchaseOrders" sheetId="20" r:id="rId6"/>
-    <sheet name="Delivery Data" sheetId="22" r:id="rId7"/>
-    <sheet name="Quality Control Data" sheetId="23" r:id="rId8"/>
+    <sheet name="PurchaseOrders" sheetId="20" r:id="rId4"/>
+    <sheet name="Delivery Data" sheetId="22" r:id="rId5"/>
+    <sheet name="Quality Control Data" sheetId="23" r:id="rId6"/>
+    <sheet name="Supplier Data" sheetId="27" r:id="rId7"/>
+    <sheet name="Cost Data" sheetId="26" r:id="rId8"/>
     <sheet name="Lead Time Data" sheetId="24" r:id="rId9"/>
     <sheet name="Compliance Data" sheetId="25" r:id="rId10"/>
     <sheet name="Inventory Management Data" sheetId="10" r:id="rId11"/>
@@ -2373,30 +2373,6 @@
     <xf numFmtId="14" fontId="8" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2436,6 +2412,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3207,30 +3207,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="1.05">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="65"/>
+      <c r="B1" s="79"/>
     </row>
     <row r="2" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
     </row>
     <row r="3" spans="1:3" ht="211" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="81" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="67"/>
+      <c r="B3" s="81"/>
     </row>
     <row r="4" spans="1:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="25.8" x14ac:dyDescent="0.95">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="82"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="11" t="s">
@@ -3289,10 +3289,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="25.8" x14ac:dyDescent="0.95">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="69"/>
+      <c r="B14" s="83"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="23" t="s">
@@ -3474,8 +3474,8 @@
   </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3788,7 +3788,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4059,7 +4059,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4091,7 +4091,7 @@
       <c r="D1" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="77" t="s">
         <v>24</v>
       </c>
       <c r="F1" s="33" t="s">
@@ -4129,7 +4129,7 @@
       <c r="D2" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="86" t="s">
+      <c r="E2" s="78" t="s">
         <v>110</v>
       </c>
       <c r="F2" s="43" t="str">
@@ -4161,7 +4161,7 @@
       <c r="D3" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="86" t="s">
+      <c r="E3" s="78" t="s">
         <v>110</v>
       </c>
       <c r="F3" s="43" t="str">
@@ -4189,7 +4189,7 @@
       <c r="D4" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="86" t="s">
+      <c r="E4" s="78" t="s">
         <v>110</v>
       </c>
       <c r="F4" s="43" t="str">
@@ -4221,7 +4221,7 @@
       <c r="D5" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="78" t="s">
         <v>110</v>
       </c>
       <c r="F5" s="43" t="str">
@@ -4785,568 +4785,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EE2CE7-1DC0-40ED-9767-400842106D10}">
-  <dimension ref="A1:L9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="2" width="23.47265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.68359375" customWidth="1"/>
-    <col min="6" max="6" width="24.7890625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.20703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.47265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.26171875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="74" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="75" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="76" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="77" t="s">
-        <v>145</v>
-      </c>
-      <c r="H1" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="77" t="s">
-        <v>146</v>
-      </c>
-      <c r="J1" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="K1" s="74" t="s">
-        <v>274</v>
-      </c>
-      <c r="L1" s="74" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="78" t="s">
-        <v>275</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D2" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="80" t="s">
-        <v>277</v>
-      </c>
-      <c r="G2" s="63" t="s">
-        <v>278</v>
-      </c>
-      <c r="H2" s="81" t="s">
-        <v>279</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="82" t="s">
-        <v>280</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D3" s="63" t="s">
-        <v>281</v>
-      </c>
-      <c r="E3" s="79" t="s">
-        <v>282</v>
-      </c>
-      <c r="F3" s="80" t="s">
-        <v>283</v>
-      </c>
-      <c r="G3" s="81" t="s">
-        <v>284</v>
-      </c>
-      <c r="H3" s="81"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="82" t="s">
-        <v>285</v>
-      </c>
-      <c r="B4" s="82" t="s">
-        <v>285</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D4" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" s="83" t="s">
-        <v>286</v>
-      </c>
-      <c r="F4" s="80" t="s">
-        <v>287</v>
-      </c>
-      <c r="G4" s="63" t="s">
-        <v>288</v>
-      </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="82" t="s">
-        <v>292</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="82" t="s">
-        <v>295</v>
-      </c>
-      <c r="B7" s="82" t="s">
-        <v>295</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="82" t="s">
-        <v>298</v>
-      </c>
-      <c r="B8" s="82" t="s">
-        <v>298</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="82" t="s">
-        <v>300</v>
-      </c>
-      <c r="B9" s="82" t="s">
-        <v>300</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" location="table" tooltip="Minimum and Maximum # of times the the element can appear in the instance" display="http://hl7.org/fhir/R4/formats.html - table" xr:uid="{ED71BEE4-4E2B-452D-9EFA-11A7606464B6}"/>
-    <hyperlink ref="E1" r:id="rId2" location="table" tooltip="Reference to the type of the element" display="http://hl7.org/fhir/R4/formats.html - table" xr:uid="{C1E955F5-0878-4427-8646-8DD3532A98E4}"/>
-    <hyperlink ref="E2" r:id="rId3" location="code" display="code" xr:uid="{976C1031-679C-45E1-86C7-0B478614D2FB}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017F28FC-CA05-4138-8851-5AFBE7C0275A}">
-  <dimension ref="A1:J9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="2" width="21.5234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.89453125" customWidth="1"/>
-    <col min="8" max="8" width="8.734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="74" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="75" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="76" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="77" t="s">
-        <v>145</v>
-      </c>
-      <c r="H1" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="77" t="s">
-        <v>274</v>
-      </c>
-      <c r="J1" s="77" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="82" t="s">
-        <v>302</v>
-      </c>
-      <c r="B2" s="82" t="s">
-        <v>302</v>
-      </c>
-      <c r="C2" s="82" t="s">
-        <v>276</v>
-      </c>
-      <c r="D2" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="82" t="s">
-        <v>282</v>
-      </c>
-      <c r="F2" s="80" t="s">
-        <v>303</v>
-      </c>
-      <c r="G2" s="82" t="s">
-        <v>304</v>
-      </c>
-      <c r="H2" s="84" t="s">
-        <v>305</v>
-      </c>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="78" t="s">
-        <v>275</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D3" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="F3" s="80" t="s">
-        <v>277</v>
-      </c>
-      <c r="G3" s="63" t="s">
-        <v>278</v>
-      </c>
-      <c r="H3" s="81"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="82" t="s">
-        <v>306</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D4" s="63" t="s">
-        <v>281</v>
-      </c>
-      <c r="E4" s="79" t="s">
-        <v>282</v>
-      </c>
-      <c r="F4" s="80" t="s">
-        <v>307</v>
-      </c>
-      <c r="G4" s="81" t="s">
-        <v>308</v>
-      </c>
-      <c r="H4" s="81"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="82" t="s">
-        <v>309</v>
-      </c>
-      <c r="B5" s="82" t="s">
-        <v>309</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D5" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F5" s="80" t="s">
-        <v>310</v>
-      </c>
-      <c r="G5" s="63" t="s">
-        <v>311</v>
-      </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="82" t="s">
-        <v>312</v>
-      </c>
-      <c r="B6" s="82" t="s">
-        <v>312</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F6" s="80" t="s">
-        <v>310</v>
-      </c>
-      <c r="G6" s="63" t="s">
-        <v>311</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="82" t="s">
-        <v>313</v>
-      </c>
-      <c r="B7" s="82" t="s">
-        <v>313</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F7" s="80" t="s">
-        <v>310</v>
-      </c>
-      <c r="G7" s="63" t="s">
-        <v>311</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="82" t="s">
-        <v>314</v>
-      </c>
-      <c r="B8" s="82" t="s">
-        <v>314</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F8" s="80" t="s">
-        <v>310</v>
-      </c>
-      <c r="G8" s="63" t="s">
-        <v>311</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="82" t="s">
-        <v>315</v>
-      </c>
-      <c r="B9" s="82" t="s">
-        <v>315</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F9" s="80" t="s">
-        <v>310</v>
-      </c>
-      <c r="G9" s="63" t="s">
-        <v>311</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" location="code" display="code" xr:uid="{C86F57F5-F8C1-4AAA-AFFC-08198CEFDBB5}"/>
-    <hyperlink ref="D1" r:id="rId2" location="table" tooltip="Minimum and Maximum # of times the the element can appear in the instance" display="http://hl7.org/fhir/R4/formats.html - table" xr:uid="{2C568A36-85DC-4C02-8385-F55BE71A22EB}"/>
-    <hyperlink ref="E1" r:id="rId3" location="table" tooltip="Reference to the type of the element" display="http://hl7.org/fhir/R4/formats.html - table" xr:uid="{E1FB292D-6841-43F0-8D56-1A1AFBF1BFD0}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACCF67C-1A08-4EEF-865B-DC2DF7A4ECEE}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
@@ -5354,7 +4792,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5445,7 +4883,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="51"/>
       <c r="L2" s="51"/>
-      <c r="M2" s="70" t="s">
+      <c r="M2" s="84" t="s">
         <v>150</v>
       </c>
     </row>
@@ -5480,7 +4918,7 @@
       <c r="J3" s="51"/>
       <c r="K3" s="51"/>
       <c r="L3" s="51"/>
-      <c r="M3" s="71"/>
+      <c r="M3" s="85"/>
     </row>
     <row r="4" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="50" t="s">
@@ -5515,7 +4953,7 @@
         <v>151</v>
       </c>
       <c r="L4" s="51"/>
-      <c r="M4" s="72"/>
+      <c r="M4" s="86"/>
     </row>
     <row r="5" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="50" t="s">
@@ -5722,7 +5160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA83930D-C2BD-4938-9AEC-8B55EBB00909}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
@@ -5730,7 +5168,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6095,7 +5533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984CC974-A668-43D1-8F16-75E0AC84647E}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
@@ -6103,7 +5541,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6566,6 +6004,568 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EE2CE7-1DC0-40ED-9767-400842106D10}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="2" width="23.47265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.68359375" customWidth="1"/>
+    <col min="6" max="6" width="24.7890625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.20703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.47265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.26171875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="69" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="69" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="L1" s="66" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="70" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="G2" s="63" t="s">
+        <v>278</v>
+      </c>
+      <c r="H2" s="73" t="s">
+        <v>279</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="74" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>281</v>
+      </c>
+      <c r="E3" s="71" t="s">
+        <v>282</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>283</v>
+      </c>
+      <c r="G3" s="73" t="s">
+        <v>284</v>
+      </c>
+      <c r="H3" s="73"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="74" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="75" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>287</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="H4" s="63"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="74" t="s">
+        <v>292</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="74" t="s">
+        <v>295</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="74" t="s">
+        <v>298</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="74" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" s="74" t="s">
+        <v>300</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" location="table" tooltip="Minimum and Maximum # of times the the element can appear in the instance" display="http://hl7.org/fhir/R4/formats.html - table" xr:uid="{ED71BEE4-4E2B-452D-9EFA-11A7606464B6}"/>
+    <hyperlink ref="E1" r:id="rId2" location="table" tooltip="Reference to the type of the element" display="http://hl7.org/fhir/R4/formats.html - table" xr:uid="{C1E955F5-0878-4427-8646-8DD3532A98E4}"/>
+    <hyperlink ref="E2" r:id="rId3" location="code" display="code" xr:uid="{976C1031-679C-45E1-86C7-0B478614D2FB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017F28FC-CA05-4138-8851-5AFBE7C0275A}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="2" width="21.5234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.89453125" customWidth="1"/>
+    <col min="8" max="8" width="8.734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="69" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="69" t="s">
+        <v>274</v>
+      </c>
+      <c r="J1" s="69" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="74" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="74" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" s="72" t="s">
+        <v>303</v>
+      </c>
+      <c r="G2" s="74" t="s">
+        <v>304</v>
+      </c>
+      <c r="H2" s="76" t="s">
+        <v>305</v>
+      </c>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="70" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="G3" s="63" t="s">
+        <v>278</v>
+      </c>
+      <c r="H3" s="73"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="74" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4" s="71" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>307</v>
+      </c>
+      <c r="G4" s="73" t="s">
+        <v>308</v>
+      </c>
+      <c r="H4" s="73"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="74" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>309</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F5" s="72" t="s">
+        <v>310</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>311</v>
+      </c>
+      <c r="H5" s="63"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="74" t="s">
+        <v>312</v>
+      </c>
+      <c r="B6" s="74" t="s">
+        <v>312</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>310</v>
+      </c>
+      <c r="G6" s="63" t="s">
+        <v>311</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="74" t="s">
+        <v>313</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>313</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="72" t="s">
+        <v>310</v>
+      </c>
+      <c r="G7" s="63" t="s">
+        <v>311</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F8" s="72" t="s">
+        <v>310</v>
+      </c>
+      <c r="G8" s="63" t="s">
+        <v>311</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="74" t="s">
+        <v>315</v>
+      </c>
+      <c r="B9" s="74" t="s">
+        <v>315</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F9" s="72" t="s">
+        <v>310</v>
+      </c>
+      <c r="G9" s="63" t="s">
+        <v>311</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" location="code" display="code" xr:uid="{C86F57F5-F8C1-4AAA-AFFC-08198CEFDBB5}"/>
+    <hyperlink ref="D1" r:id="rId2" location="table" tooltip="Minimum and Maximum # of times the the element can appear in the instance" display="http://hl7.org/fhir/R4/formats.html - table" xr:uid="{2C568A36-85DC-4C02-8385-F55BE71A22EB}"/>
+    <hyperlink ref="E1" r:id="rId3" location="table" tooltip="Reference to the type of the element" display="http://hl7.org/fhir/R4/formats.html - table" xr:uid="{E1FB292D-6841-43F0-8D56-1A1AFBF1BFD0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D0B59-EE27-46C9-9DE5-50895888BE07}">
   <sheetPr>
@@ -6573,8 +6573,8 @@
   </sheetPr>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6905,15 +6905,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100503221AB708796409AD860ADE6AAD593" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c0ffc22559576c48cf28c990a0d7a275">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c4f2b4a-d872-4bc3-92aa-c9e0e0ce3abf" xmlns:ns3="eaabd3e7-0ce8-42bc-8d66-c3c3304c2dfc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9cbde4cd61471a7f78e266c6f4f58277" ns2:_="" ns3:_="">
     <xsd:import namespace="8c4f2b4a-d872-4bc3-92aa-c9e0e0ce3abf"/>
@@ -7124,6 +7115,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7144,14 +7144,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F3EF619-D41E-4705-9CA4-A271305D0F0D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D172CF95-4E7F-46C6-B917-F98C8BD1FD91}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7170,6 +7162,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F3EF619-D41E-4705-9CA4-A271305D0F0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{209C933E-2063-4D4C-8812-09EB74513F28}">
   <ds:schemaRefs>
